--- a/output/2015SB12/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
+++ b/output/2015SB12/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\Fani-Lab\lady\main\output\2015SB12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\2015SB12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4BBE90-592A-47BC-BA32-E8272881D6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E773AE-43B8-48A2-A2CF-FCED537C798F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="162">
   <si>
     <t>metric</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>pr1</t>
+  </si>
+  <si>
+    <t>cat</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1832,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$28</c:f>
+              <c:f>Sheet2!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1906,7 +1909,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$30:$L$30</c:f>
+              <c:f>Sheet2!$B$33:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2035,7 +2038,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$24:$L$24</c:f>
+              <c:f>Sheet2!$B$27:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2164,7 +2167,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$27:$L$27</c:f>
+              <c:f>Sheet2!$B$30:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2291,7 +2294,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$33:$L$33</c:f>
+              <c:f>Sheet2!$B$36:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2420,7 +2423,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$36:$L$36</c:f>
+              <c:f>Sheet2!$B$39:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2547,7 +2550,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$39:$L$39</c:f>
+              <c:f>Sheet2!$B$42:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4005,16 +4008,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12327</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>315166</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>59952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409239</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88527</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361614</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>136152</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4043,16 +4046,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>359988</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>353209</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19834</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13345,10 +13348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FFB291-E4F5-4E4E-B884-4FDFA1C7897B}">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:L38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14261,17 +14264,42 @@
       <c r="W19"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
+      <c r="A20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20">
+        <v>0.33267326732673203</v>
+      </c>
+      <c r="C20">
+        <v>0.29504950495049498</v>
+      </c>
+      <c r="D20">
+        <v>0.25940594059405903</v>
+      </c>
+      <c r="E20">
+        <v>0.22970297029702899</v>
+      </c>
+      <c r="F20">
+        <v>0.243564356435643</v>
+      </c>
+      <c r="G20">
+        <v>0.174257425742574</v>
+      </c>
+      <c r="H20">
+        <v>0.12079207920792</v>
+      </c>
+      <c r="I20">
+        <v>0.118811881188118</v>
+      </c>
+      <c r="J20">
+        <v>8.5148514851485099E-2</v>
+      </c>
+      <c r="K20">
+        <v>6.1386138613861302E-2</v>
+      </c>
+      <c r="L20">
+        <v>7.9207920792079001E-3</v>
+      </c>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
@@ -14286,40 +14314,40 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.598019801980198</v>
       </c>
       <c r="C21">
-        <v>0.1</v>
+        <v>0.50297029702970297</v>
       </c>
       <c r="D21">
-        <v>0.2</v>
+        <v>0.50297029702970297</v>
       </c>
       <c r="E21">
-        <v>0.3</v>
+        <v>0.42574257425742501</v>
       </c>
       <c r="F21">
-        <v>0.4</v>
+        <v>0.445544554455445</v>
       </c>
       <c r="G21">
-        <v>0.5</v>
+        <v>0.396039603960396</v>
       </c>
       <c r="H21">
-        <v>0.6</v>
+        <v>0.26930693069306899</v>
       </c>
       <c r="I21">
-        <v>0.7</v>
+        <v>0.25940594059405903</v>
       </c>
       <c r="J21">
-        <v>0.8</v>
+        <v>0.16633663366336601</v>
       </c>
       <c r="K21">
-        <v>0.9</v>
+        <v>0.16831683168316799</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.10297029702970199</v>
       </c>
       <c r="M21"/>
       <c r="N21"/>
@@ -14334,125 +14362,122 @@
       <c r="W21"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="B22">
-        <v>0.24254063504544901</v>
+        <f>B21-B20</f>
+        <v>0.26534653465346597</v>
       </c>
       <c r="C22">
-        <v>0.22897830928568899</v>
+        <f>C21-C20</f>
+        <v>0.20792079207920799</v>
       </c>
       <c r="D22">
-        <v>0.23115059686952399</v>
+        <f t="shared" ref="C22:L22" si="6">D21-D20</f>
+        <v>0.24356435643564395</v>
       </c>
       <c r="E22">
-        <v>0.23409983899780801</v>
+        <f t="shared" si="6"/>
+        <v>0.19603960396039602</v>
       </c>
       <c r="F22">
-        <v>0.21827218309434701</v>
+        <f t="shared" si="6"/>
+        <v>0.20198019801980199</v>
       </c>
       <c r="G22">
-        <v>0.20651839523203799</v>
+        <f t="shared" si="6"/>
+        <v>0.22178217821782201</v>
       </c>
       <c r="H22">
-        <v>0.20885116266548701</v>
+        <f t="shared" si="6"/>
+        <v>0.14851485148514898</v>
       </c>
       <c r="I22">
-        <v>0.206593866900384</v>
+        <f t="shared" si="6"/>
+        <v>0.14059405940594102</v>
       </c>
       <c r="J22">
-        <v>0.19255147710609499</v>
+        <f t="shared" si="6"/>
+        <v>8.1188118811880913E-2</v>
       </c>
       <c r="K22">
-        <v>0.191056524147833</v>
+        <f t="shared" si="6"/>
+        <v>0.10693069306930669</v>
       </c>
       <c r="L22">
-        <v>0.183991547861516</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>9.5049504950494093E-2</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23">
-        <v>0.233499312064992</v>
-      </c>
-      <c r="C23">
-        <v>0.22711386354326599</v>
-      </c>
-      <c r="D23">
-        <v>0.222174008230656</v>
-      </c>
-      <c r="E23">
-        <v>0.208834769991321</v>
-      </c>
-      <c r="F23">
-        <v>0.20578359120090001</v>
-      </c>
-      <c r="G23">
-        <v>0.19554189782613801</v>
-      </c>
-      <c r="H23">
-        <v>0.18192871023389601</v>
-      </c>
-      <c r="I23">
-        <v>0.176816837924271</v>
-      </c>
-      <c r="J23">
-        <v>0.173950888218211</v>
-      </c>
-      <c r="K23">
-        <v>0.163353715259656</v>
-      </c>
-      <c r="L23">
-        <v>0.15820851182190199</v>
-      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B24">
-        <f>B23-B22</f>
-        <v>-9.0413229804570117E-3</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:L24" si="6">C23-C22</f>
-        <v>-1.8644457424230043E-3</v>
+        <v>0.1</v>
       </c>
       <c r="D24">
-        <f t="shared" si="6"/>
-        <v>-8.9765886388679939E-3</v>
+        <v>0.2</v>
       </c>
       <c r="E24">
-        <f t="shared" si="6"/>
-        <v>-2.5265069006487006E-2</v>
+        <v>0.3</v>
       </c>
       <c r="F24">
-        <f t="shared" si="6"/>
-        <v>-1.2488591893447004E-2</v>
+        <v>0.4</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
-        <v>-1.0976497405899982E-2</v>
+        <v>0.5</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
-        <v>-2.6922452431590999E-2</v>
+        <v>0.6</v>
       </c>
       <c r="I24">
-        <f t="shared" si="6"/>
-        <v>-2.9777028976113007E-2</v>
+        <v>0.7</v>
       </c>
       <c r="J24">
-        <f t="shared" si="6"/>
-        <v>-1.860058888788399E-2</v>
+        <v>0.8</v>
       </c>
       <c r="K24">
-        <f t="shared" si="6"/>
-        <v>-2.7702808888177E-2</v>
+        <v>0.9</v>
       </c>
       <c r="L24">
-        <f t="shared" si="6"/>
-        <v>-2.5783036039614016E-2</v>
+        <v>1</v>
       </c>
       <c r="M24"/>
       <c r="N24"/>
@@ -14468,40 +14493,40 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25">
-        <v>3.9230027356000299E-2</v>
+        <v>0.24254063504544901</v>
       </c>
       <c r="C25">
-        <v>4.049122039967E-2</v>
+        <v>0.22897830928568899</v>
       </c>
       <c r="D25">
-        <v>2.9533470565546199E-2</v>
+        <v>0.23115059686952399</v>
       </c>
       <c r="E25">
-        <v>2.3285467569399899E-2</v>
+        <v>0.23409983899780801</v>
       </c>
       <c r="F25">
-        <v>1.5223699151745901E-2</v>
+        <v>0.21827218309434701</v>
       </c>
       <c r="G25">
-        <v>1.5336690742718401E-2</v>
+        <v>0.20651839523203799</v>
       </c>
       <c r="H25">
-        <v>1.6617643025382101E-2</v>
+        <v>0.20885116266548701</v>
       </c>
       <c r="I25">
-        <v>1.0799498990888201E-2</v>
+        <v>0.206593866900384</v>
       </c>
       <c r="J25">
-        <v>1.1115308062363299E-2</v>
+        <v>0.19255147710609499</v>
       </c>
       <c r="K25">
-        <v>8.6347734781333004E-3</v>
+        <v>0.191056524147833</v>
       </c>
       <c r="L25">
-        <v>1.0544073611637599E-2</v>
+        <v>0.183991547861516</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -14509,83 +14534,83 @@
         <v>155</v>
       </c>
       <c r="B26">
-        <v>0.23417562061563901</v>
+        <v>0.233499312064992</v>
       </c>
       <c r="C26">
-        <v>0.214459446452094</v>
+        <v>0.22711386354326599</v>
       </c>
       <c r="D26">
-        <v>0.164911591913601</v>
+        <v>0.222174008230656</v>
       </c>
       <c r="E26">
-        <v>0.108209025287466</v>
+        <v>0.208834769991321</v>
       </c>
       <c r="F26">
-        <v>8.4284621938839593E-2</v>
+        <v>0.20578359120090001</v>
       </c>
       <c r="G26">
-        <v>7.8567150830720203E-2</v>
+        <v>0.19554189782613801</v>
       </c>
       <c r="H26">
-        <v>6.5873094749660202E-2</v>
+        <v>0.18192871023389601</v>
       </c>
       <c r="I26">
-        <v>5.7092279401870498E-2</v>
+        <v>0.176816837924271</v>
       </c>
       <c r="J26">
-        <v>4.7628212052077103E-2</v>
+        <v>0.173950888218211</v>
       </c>
       <c r="K26">
-        <v>4.06864982981592E-2</v>
+        <v>0.163353715259656</v>
       </c>
       <c r="L26">
-        <v>3.6850745134046702E-2</v>
+        <v>0.15820851182190199</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>B26-B25</f>
-        <v>0.19494559325963873</v>
+        <v>-9.0413229804570117E-3</v>
       </c>
       <c r="C27">
         <f t="shared" ref="C27:L27" si="7">C26-C25</f>
-        <v>0.17396822605242401</v>
+        <v>-1.8644457424230043E-3</v>
       </c>
       <c r="D27">
         <f t="shared" si="7"/>
-        <v>0.1353781213480548</v>
+        <v>-8.9765886388679939E-3</v>
       </c>
       <c r="E27">
         <f t="shared" si="7"/>
-        <v>8.4923557718066089E-2</v>
+        <v>-2.5265069006487006E-2</v>
       </c>
       <c r="F27">
         <f t="shared" si="7"/>
-        <v>6.9060922787093693E-2</v>
+        <v>-1.2488591893447004E-2</v>
       </c>
       <c r="G27">
         <f t="shared" si="7"/>
-        <v>6.3230460088001803E-2</v>
+        <v>-1.0976497405899982E-2</v>
       </c>
       <c r="H27">
         <f t="shared" si="7"/>
-        <v>4.9255451724278101E-2</v>
+        <v>-2.6922452431590999E-2</v>
       </c>
       <c r="I27">
         <f t="shared" si="7"/>
-        <v>4.6292780410982295E-2</v>
+        <v>-2.9777028976113007E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="7"/>
-        <v>3.6512903989713803E-2</v>
+        <v>-1.860058888788399E-2</v>
       </c>
       <c r="K27">
         <f t="shared" si="7"/>
-        <v>3.2051724820025898E-2</v>
+        <v>-2.7702808888177E-2</v>
       </c>
       <c r="L27">
         <f t="shared" si="7"/>
-        <v>2.6306671522409102E-2</v>
+        <v>-2.5783036039614016E-2</v>
       </c>
       <c r="M27"/>
       <c r="N27"/>
@@ -14601,40 +14626,40 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B28">
-        <v>0.28403081952027698</v>
+        <v>3.9230027356000299E-2</v>
       </c>
       <c r="C28">
-        <v>0.280984729683045</v>
+        <v>4.049122039967E-2</v>
       </c>
       <c r="D28">
-        <v>0.26713453004905102</v>
+        <v>2.9533470565546199E-2</v>
       </c>
       <c r="E28">
-        <v>0.269090841723999</v>
+        <v>2.3285467569399899E-2</v>
       </c>
       <c r="F28">
-        <v>0.26500160590698602</v>
+        <v>1.5223699151745901E-2</v>
       </c>
       <c r="G28">
-        <v>0.24675329122951101</v>
+        <v>1.5336690742718401E-2</v>
       </c>
       <c r="H28">
-        <v>0.24280872991969199</v>
+        <v>1.6617643025382101E-2</v>
       </c>
       <c r="I28">
-        <v>0.23779758007756999</v>
+        <v>1.0799498990888201E-2</v>
       </c>
       <c r="J28">
-        <v>0.22806874540362501</v>
+        <v>1.1115308062363299E-2</v>
       </c>
       <c r="K28">
-        <v>0.22067960269106501</v>
+        <v>8.6347734781333004E-3</v>
       </c>
       <c r="L28">
-        <v>0.214554066144098</v>
+        <v>1.0544073611637599E-2</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -14642,83 +14667,83 @@
         <v>155</v>
       </c>
       <c r="B29">
-        <v>0.28549995777621701</v>
+        <v>0.23417562061563901</v>
       </c>
       <c r="C29">
-        <v>0.26873771122622703</v>
+        <v>0.214459446452094</v>
       </c>
       <c r="D29">
-        <v>0.26222865611880702</v>
+        <v>0.164911591913601</v>
       </c>
       <c r="E29">
-        <v>0.25728317977460002</v>
+        <v>0.108209025287466</v>
       </c>
       <c r="F29">
-        <v>0.24223131670725101</v>
+        <v>8.4284621938839593E-2</v>
       </c>
       <c r="G29">
-        <v>0.23043523628753201</v>
+        <v>7.8567150830720203E-2</v>
       </c>
       <c r="H29">
-        <v>0.211797669195501</v>
+        <v>6.5873094749660202E-2</v>
       </c>
       <c r="I29">
-        <v>0.20303760740975399</v>
+        <v>5.7092279401870498E-2</v>
       </c>
       <c r="J29">
-        <v>0.18951463022180601</v>
+        <v>4.7628212052077103E-2</v>
       </c>
       <c r="K29">
-        <v>0.18287166733577001</v>
+        <v>4.06864982981592E-2</v>
       </c>
       <c r="L29">
-        <v>0.173286344789191</v>
+        <v>3.6850745134046702E-2</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30">
         <f>B29-B28</f>
-        <v>1.4691382559400279E-3</v>
+        <v>0.19494559325963873</v>
       </c>
       <c r="C30">
         <f t="shared" ref="C30:L30" si="8">C29-C28</f>
-        <v>-1.2247018456817971E-2</v>
+        <v>0.17396822605242401</v>
       </c>
       <c r="D30">
         <f t="shared" si="8"/>
-        <v>-4.905873930243998E-3</v>
+        <v>0.1353781213480548</v>
       </c>
       <c r="E30">
         <f t="shared" si="8"/>
-        <v>-1.1807661949398973E-2</v>
+        <v>8.4923557718066089E-2</v>
       </c>
       <c r="F30">
         <f t="shared" si="8"/>
-        <v>-2.2770289199735005E-2</v>
+        <v>6.9060922787093693E-2</v>
       </c>
       <c r="G30">
         <f t="shared" si="8"/>
-        <v>-1.6318054941978993E-2</v>
+        <v>6.3230460088001803E-2</v>
       </c>
       <c r="H30">
         <f t="shared" si="8"/>
-        <v>-3.1011060724190992E-2</v>
+        <v>4.9255451724278101E-2</v>
       </c>
       <c r="I30">
         <f t="shared" si="8"/>
-        <v>-3.4759972667815997E-2</v>
+        <v>4.6292780410982295E-2</v>
       </c>
       <c r="J30">
         <f t="shared" si="8"/>
-        <v>-3.8554115181819004E-2</v>
+        <v>3.6512903989713803E-2</v>
       </c>
       <c r="K30">
         <f t="shared" si="8"/>
-        <v>-3.7807935355295003E-2</v>
+        <v>3.2051724820025898E-2</v>
       </c>
       <c r="L30">
         <f t="shared" si="8"/>
-        <v>-4.1267721354907E-2</v>
+        <v>2.6306671522409102E-2</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -14734,40 +14759,40 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31">
-        <v>6.9647427567202996E-3</v>
+        <v>0.28403081952027698</v>
       </c>
       <c r="C31">
-        <v>7.9162990408356993E-3</v>
+        <v>0.280984729683045</v>
       </c>
       <c r="D31">
-        <v>1.2390121637770901E-2</v>
+        <v>0.26713453004905102</v>
       </c>
       <c r="E31">
-        <v>1.15222857731784E-2</v>
+        <v>0.269090841723999</v>
       </c>
       <c r="F31">
-        <v>1.45309798099776E-2</v>
+        <v>0.26500160590698602</v>
       </c>
       <c r="G31">
-        <v>1.04782166168793E-2</v>
+        <v>0.24675329122951101</v>
       </c>
       <c r="H31">
-        <v>9.9864957945419996E-3</v>
+        <v>0.24280872991969199</v>
       </c>
       <c r="I31">
-        <v>1.1560310320058401E-2</v>
+        <v>0.23779758007756999</v>
       </c>
       <c r="J31">
-        <v>1.3151753007267401E-2</v>
+        <v>0.22806874540362501</v>
       </c>
       <c r="K31">
-        <v>9.8014828506998997E-3</v>
+        <v>0.22067960269106501</v>
       </c>
       <c r="L31">
-        <v>1.52463557321613E-2</v>
+        <v>0.214554066144098</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -14775,83 +14800,83 @@
         <v>155</v>
       </c>
       <c r="B32">
-        <v>7.3210041698252695E-2</v>
+        <v>0.28549995777621701</v>
       </c>
       <c r="C32">
-        <v>6.6247653983658394E-2</v>
+        <v>0.26873771122622703</v>
       </c>
       <c r="D32">
-        <v>6.1861336052133203E-2</v>
+        <v>0.26222865611880702</v>
       </c>
       <c r="E32">
-        <v>5.9369352331762097E-2</v>
+        <v>0.25728317977460002</v>
       </c>
       <c r="F32">
-        <v>5.57836351087279E-2</v>
+        <v>0.24223131670725101</v>
       </c>
       <c r="G32">
-        <v>4.8218507204846703E-2</v>
+        <v>0.23043523628753201</v>
       </c>
       <c r="H32">
-        <v>4.6512946397236403E-2</v>
+        <v>0.211797669195501</v>
       </c>
       <c r="I32">
-        <v>3.8440899567626897E-2</v>
+        <v>0.20303760740975399</v>
       </c>
       <c r="J32">
-        <v>3.5661959976534499E-2</v>
+        <v>0.18951463022180601</v>
       </c>
       <c r="K32">
-        <v>3.1400773127764799E-2</v>
+        <v>0.18287166733577001</v>
       </c>
       <c r="L32">
-        <v>2.5829371680692301E-2</v>
+        <v>0.173286344789191</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>B32-B31</f>
-        <v>6.6245298941532402E-2</v>
+        <v>1.4691382559400279E-3</v>
       </c>
       <c r="C33">
         <f t="shared" ref="C33:L33" si="9">C32-C31</f>
-        <v>5.8331354942822697E-2</v>
+        <v>-1.2247018456817971E-2</v>
       </c>
       <c r="D33">
         <f t="shared" si="9"/>
-        <v>4.9471214414362301E-2</v>
+        <v>-4.905873930243998E-3</v>
       </c>
       <c r="E33">
         <f t="shared" si="9"/>
-        <v>4.7847066558583701E-2</v>
+        <v>-1.1807661949398973E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="9"/>
-        <v>4.1252655298750301E-2</v>
+        <v>-2.2770289199735005E-2</v>
       </c>
       <c r="G33">
         <f t="shared" si="9"/>
-        <v>3.7740290587967407E-2</v>
+        <v>-1.6318054941978993E-2</v>
       </c>
       <c r="H33">
         <f t="shared" si="9"/>
-        <v>3.6526450602694403E-2</v>
+        <v>-3.1011060724190992E-2</v>
       </c>
       <c r="I33">
         <f t="shared" si="9"/>
-        <v>2.6880589247568497E-2</v>
+        <v>-3.4759972667815997E-2</v>
       </c>
       <c r="J33">
         <f t="shared" si="9"/>
-        <v>2.2510206969267098E-2</v>
+        <v>-3.8554115181819004E-2</v>
       </c>
       <c r="K33">
         <f t="shared" si="9"/>
-        <v>2.1599290277064899E-2</v>
+        <v>-3.7807935355295003E-2</v>
       </c>
       <c r="L33">
         <f t="shared" si="9"/>
-        <v>1.0583015948531001E-2</v>
+        <v>-4.1267721354907E-2</v>
       </c>
       <c r="M33"/>
       <c r="N33"/>
@@ -14867,40 +14892,40 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34">
-        <v>3.8704582053208703E-2</v>
+        <v>6.9647427567202996E-3</v>
       </c>
       <c r="C34">
-        <v>3.8829067639362697E-2</v>
+        <v>7.9162990408356993E-3</v>
       </c>
       <c r="D34">
-        <v>3.9902712733777802E-2</v>
+        <v>1.2390121637770901E-2</v>
       </c>
       <c r="E34">
-        <v>3.7296856593061603E-2</v>
+        <v>1.15222857731784E-2</v>
       </c>
       <c r="F34">
-        <v>3.4537014554100701E-2</v>
+        <v>1.45309798099776E-2</v>
       </c>
       <c r="G34">
-        <v>3.6879533859305202E-2</v>
+        <v>1.04782166168793E-2</v>
       </c>
       <c r="H34">
-        <v>3.6051110653010303E-2</v>
+        <v>9.9864957945419996E-3</v>
       </c>
       <c r="I34">
-        <v>3.5462368442479797E-2</v>
+        <v>1.1560310320058401E-2</v>
       </c>
       <c r="J34">
-        <v>3.1719704023251298E-2</v>
+        <v>1.3151753007267401E-2</v>
       </c>
       <c r="K34">
-        <v>3.5877835664378299E-2</v>
+        <v>9.8014828506998997E-3</v>
       </c>
       <c r="L34">
-        <v>4.1935304887711702E-2</v>
+        <v>1.52463557321613E-2</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -14908,83 +14933,83 @@
         <v>155</v>
       </c>
       <c r="B35">
-        <v>3.02447425675905E-2</v>
+        <v>7.3210041698252695E-2</v>
       </c>
       <c r="C35">
-        <v>2.94276158034774E-2</v>
+        <v>6.6247653983658394E-2</v>
       </c>
       <c r="D35">
-        <v>2.8155794867524599E-2</v>
+        <v>6.1861336052133203E-2</v>
       </c>
       <c r="E35">
-        <v>2.8326989695878602E-2</v>
+        <v>5.9369352331762097E-2</v>
       </c>
       <c r="F35">
-        <v>2.5998912404136602E-2</v>
+        <v>5.57836351087279E-2</v>
       </c>
       <c r="G35">
-        <v>2.4244081976601901E-2</v>
+        <v>4.8218507204846703E-2</v>
       </c>
       <c r="H35">
-        <v>2.0674117186635099E-2</v>
+        <v>4.6512946397236403E-2</v>
       </c>
       <c r="I35">
-        <v>3.0847134944539702E-2</v>
+        <v>3.8440899567626897E-2</v>
       </c>
       <c r="J35">
-        <v>2.4038270997170898E-2</v>
+        <v>3.5661959976534499E-2</v>
       </c>
       <c r="K35">
-        <v>1.8070778574830901E-2</v>
+        <v>3.1400773127764799E-2</v>
       </c>
       <c r="L35">
-        <v>2.4568506070185198E-2</v>
+        <v>2.5829371680692301E-2</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B36">
         <f>B35-B34</f>
-        <v>-8.4598394856182021E-3</v>
+        <v>6.6245298941532402E-2</v>
       </c>
       <c r="C36">
         <f t="shared" ref="C36:L36" si="10">C35-C34</f>
-        <v>-9.4014518358852966E-3</v>
+        <v>5.8331354942822697E-2</v>
       </c>
       <c r="D36">
         <f t="shared" si="10"/>
-        <v>-1.1746917866253204E-2</v>
+        <v>4.9471214414362301E-2</v>
       </c>
       <c r="E36">
         <f t="shared" si="10"/>
-        <v>-8.9698668971830015E-3</v>
+        <v>4.7847066558583701E-2</v>
       </c>
       <c r="F36">
         <f t="shared" si="10"/>
-        <v>-8.538102149964099E-3</v>
+        <v>4.1252655298750301E-2</v>
       </c>
       <c r="G36">
         <f t="shared" si="10"/>
-        <v>-1.2635451882703302E-2</v>
+        <v>3.7740290587967407E-2</v>
       </c>
       <c r="H36">
         <f t="shared" si="10"/>
-        <v>-1.5376993466375204E-2</v>
+        <v>3.6526450602694403E-2</v>
       </c>
       <c r="I36">
         <f t="shared" si="10"/>
-        <v>-4.6152334979400952E-3</v>
+        <v>2.6880589247568497E-2</v>
       </c>
       <c r="J36">
         <f t="shared" si="10"/>
-        <v>-7.6814330260803997E-3</v>
+        <v>2.2510206969267098E-2</v>
       </c>
       <c r="K36">
         <f t="shared" si="10"/>
-        <v>-1.7807057089547398E-2</v>
+        <v>2.1599290277064899E-2</v>
       </c>
       <c r="L36">
         <f t="shared" si="10"/>
-        <v>-1.7366798817526504E-2</v>
+        <v>1.0583015948531001E-2</v>
       </c>
       <c r="M36"/>
       <c r="N36"/>
@@ -15000,40 +15025,40 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B37">
-        <v>1.2831048768558999E-3</v>
+        <v>3.8704582053208703E-2</v>
       </c>
       <c r="C37">
-        <v>1.6000000000000001E-3</v>
+        <v>3.8829067639362697E-2</v>
       </c>
       <c r="D37">
-        <v>5.9469991861970002E-4</v>
+        <v>3.9902712733777802E-2</v>
       </c>
       <c r="E37">
-        <v>2.8826462464856999E-3</v>
+        <v>3.7296856593061603E-2</v>
       </c>
       <c r="F37">
-        <v>1.7522324945475E-3</v>
+        <v>3.4537014554100701E-2</v>
       </c>
       <c r="G37">
-        <v>1.4438539569833E-3</v>
+        <v>3.6879533859305202E-2</v>
       </c>
       <c r="H37">
-        <v>1.6000000000000001E-3</v>
+        <v>3.6051110653010303E-2</v>
       </c>
       <c r="I37">
-        <v>5.7608738332349998E-4</v>
+        <v>3.5462368442479797E-2</v>
       </c>
       <c r="J37">
-        <v>1.9189189653493E-3</v>
+        <v>3.1719704023251298E-2</v>
       </c>
       <c r="K37">
-        <v>1.9488655805478001E-3</v>
+        <v>3.5877835664378299E-2</v>
       </c>
       <c r="L37">
-        <v>2.1426563284376999E-3</v>
+        <v>4.1935304887711702E-2</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -15041,83 +15066,338 @@
         <v>155</v>
       </c>
       <c r="B38">
+        <v>3.02447425675905E-2</v>
+      </c>
+      <c r="C38">
+        <v>2.94276158034774E-2</v>
+      </c>
+      <c r="D38">
+        <v>2.8155794867524599E-2</v>
+      </c>
+      <c r="E38">
+        <v>2.8326989695878602E-2</v>
+      </c>
+      <c r="F38">
+        <v>2.5998912404136602E-2</v>
+      </c>
+      <c r="G38">
+        <v>2.4244081976601901E-2</v>
+      </c>
+      <c r="H38">
+        <v>2.0674117186635099E-2</v>
+      </c>
+      <c r="I38">
+        <v>3.0847134944539702E-2</v>
+      </c>
+      <c r="J38">
+        <v>2.4038270997170898E-2</v>
+      </c>
+      <c r="K38">
+        <v>1.8070778574830901E-2</v>
+      </c>
+      <c r="L38">
+        <v>2.4568506070185198E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>B38-B37</f>
+        <v>-8.4598394856182021E-3</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:L39" si="11">C38-C37</f>
+        <v>-9.4014518358852966E-3</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="11"/>
+        <v>-1.1746917866253204E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="11"/>
+        <v>-8.9698668971830015E-3</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="11"/>
+        <v>-8.538102149964099E-3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="11"/>
+        <v>-1.2635451882703302E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="11"/>
+        <v>-1.5376993466375204E-2</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="11"/>
+        <v>-4.6152334979400952E-3</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="11"/>
+        <v>-7.6814330260803997E-3</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="11"/>
+        <v>-1.7807057089547398E-2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="11"/>
+        <v>-1.7366798817526504E-2</v>
+      </c>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40">
+        <v>1.2831048768558999E-3</v>
+      </c>
+      <c r="C40">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D40">
+        <v>5.9469991861970002E-4</v>
+      </c>
+      <c r="E40">
+        <v>2.8826462464856999E-3</v>
+      </c>
+      <c r="F40">
+        <v>1.7522324945475E-3</v>
+      </c>
+      <c r="G40">
+        <v>1.4438539569833E-3</v>
+      </c>
+      <c r="H40">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="I40">
+        <v>5.7608738332349998E-4</v>
+      </c>
+      <c r="J40">
+        <v>1.9189189653493E-3</v>
+      </c>
+      <c r="K40">
+        <v>1.9488655805478001E-3</v>
+      </c>
+      <c r="L40">
+        <v>2.1426563284376999E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41">
         <v>0</v>
       </c>
-      <c r="C38">
+      <c r="C41">
         <v>0</v>
       </c>
-      <c r="D38">
+      <c r="D41">
         <v>2.0829469753828002E-3</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F38">
+      <c r="F41">
         <v>5.1295955338330002E-4</v>
       </c>
-      <c r="G38">
+      <c r="G41">
         <v>8.6594073503049995E-4</v>
       </c>
-      <c r="H38">
+      <c r="H41">
         <v>3.7542298081820003E-4</v>
       </c>
-      <c r="I38">
+      <c r="I41">
         <v>0</v>
       </c>
-      <c r="J38">
+      <c r="J41">
         <v>1.5625063481078999E-3</v>
       </c>
-      <c r="K38">
+      <c r="K41">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="L38">
+      <c r="L41">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <f>B38-B37</f>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <f>B41-B40</f>
         <v>-1.2831048768558999E-3</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" ref="C39:L39" si="11">C38-C37</f>
+      <c r="C42" s="1">
+        <f t="shared" ref="C42:L42" si="12">C41-C40</f>
         <v>-1.6000000000000001E-3</v>
       </c>
-      <c r="D39" s="1">
-        <f t="shared" si="11"/>
+      <c r="D42" s="1">
+        <f t="shared" si="12"/>
         <v>1.4882470567631001E-3</v>
       </c>
-      <c r="E39" s="1">
-        <f t="shared" si="11"/>
+      <c r="E42" s="1">
+        <f t="shared" si="12"/>
         <v>-2.0826462464857E-3</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" si="11"/>
+      <c r="F42" s="1">
+        <f t="shared" si="12"/>
         <v>-1.2392729411642E-3</v>
       </c>
-      <c r="G39" s="1">
-        <f t="shared" si="11"/>
+      <c r="G42" s="1">
+        <f t="shared" si="12"/>
         <v>-5.779132219528001E-4</v>
       </c>
-      <c r="H39" s="1">
-        <f t="shared" si="11"/>
+      <c r="H42" s="1">
+        <f t="shared" si="12"/>
         <v>-1.2245770191817999E-3</v>
       </c>
-      <c r="I39" s="1">
-        <f t="shared" si="11"/>
+      <c r="I42" s="1">
+        <f t="shared" si="12"/>
         <v>-5.7608738332349998E-4</v>
       </c>
-      <c r="J39" s="1">
-        <f t="shared" si="11"/>
+      <c r="J42" s="1">
+        <f t="shared" si="12"/>
         <v>-3.564126172414001E-4</v>
       </c>
-      <c r="K39" s="1">
-        <f t="shared" si="11"/>
+      <c r="K42" s="1">
+        <f t="shared" si="12"/>
         <v>-1.1488655805478002E-3</v>
       </c>
-      <c r="L39" s="1">
-        <f t="shared" si="11"/>
+      <c r="L42" s="1">
+        <f t="shared" si="12"/>
         <v>-2.1426563284376999E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43">
+        <v>0.434336858811324</v>
+      </c>
+      <c r="C43">
+        <v>0.38900460284951299</v>
+      </c>
+      <c r="D43">
+        <v>0.35860601337303299</v>
+      </c>
+      <c r="E43">
+        <v>0.32168144933750398</v>
+      </c>
+      <c r="F43">
+        <v>0.32676098926869002</v>
+      </c>
+      <c r="G43">
+        <v>0.236359270276501</v>
+      </c>
+      <c r="H43">
+        <v>0.17778622300432101</v>
+      </c>
+      <c r="I43">
+        <v>0.16652097961426399</v>
+      </c>
+      <c r="J43">
+        <v>0.109214671118539</v>
+      </c>
+      <c r="K43">
+        <v>9.9371332442936597E-2</v>
+      </c>
+      <c r="L43">
+        <v>3.2838700938595498E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44">
+        <v>0.70960729180542204</v>
+      </c>
+      <c r="C44">
+        <v>0.59196714042837895</v>
+      </c>
+      <c r="D44">
+        <v>0.60390705224573704</v>
+      </c>
+      <c r="E44">
+        <v>0.51229583049607696</v>
+      </c>
+      <c r="F44">
+        <v>0.52995223079410603</v>
+      </c>
+      <c r="G44">
+        <v>0.46200127239966199</v>
+      </c>
+      <c r="H44">
+        <v>0.34189310874944001</v>
+      </c>
+      <c r="I44">
+        <v>0.33136334763001801</v>
+      </c>
+      <c r="J44">
+        <v>0.19866753707131801</v>
+      </c>
+      <c r="K44">
+        <v>0.18769528583215001</v>
+      </c>
+      <c r="L44">
+        <v>0.126862893887494</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <f>B44-B43</f>
+        <v>0.27527043299409804</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" ref="C45:L45" si="13">C44-C43</f>
+        <v>0.20296253757886595</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="13"/>
+        <v>0.24530103887270405</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="13"/>
+        <v>0.19061438115857299</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="13"/>
+        <v>0.20319124152541601</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="13"/>
+        <v>0.22564200212316099</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="13"/>
+        <v>0.164106885745119</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="13"/>
+        <v>0.16484236801575403</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="13"/>
+        <v>8.9452865952779015E-2</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="13"/>
+        <v>8.8323953389213408E-2</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="13"/>
+        <v>9.4024192948898494E-2</v>
       </c>
     </row>
   </sheetData>

--- a/output/2015SB12/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
+++ b/output/2015SB12/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\2015SB12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfani/Github/fani-lab/LADy/main/output/2015SB12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E773AE-43B8-48A2-A2CF-FCED537C798F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BF535E-9028-7B4D-B468-F513FEE59B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -571,6 +571,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF007671"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -623,8 +628,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2287825059101655"/>
-          <c:y val="0.10648148148148148"/>
+          <c:x val="0.22878249306543366"/>
+          <c:y val="6.6209463189498718E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -660,8 +665,137 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="007671"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="007671"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$22:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.26534653465346597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20792079207920799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24356435643564395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19603960396039602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20198019801980199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22178217821782201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14851485148514898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14059405940594102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1188118811880913E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10693069306930669</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5049504950494093E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BD3-AD48-9500-5B87B6D0760E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$8</c:f>
@@ -790,7 +924,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -919,7 +1053,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -1048,7 +1182,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$11</c:f>
@@ -1175,7 +1309,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -1304,7 +1438,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -1549,7 +1683,7 @@
         <c:axId val="1057648927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
+          <c:max val="0.3"/>
           <c:min val="-0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1676,8 +1810,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.69587335492637892"/>
           <c:y val="0.20960848643919511"/>
-          <c:w val="0.27965879265091864"/>
-          <c:h val="0.51562117235345573"/>
+          <c:w val="0.24414782342683453"/>
+          <c:h val="0.68072985357092919"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1791,8 +1925,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23469267139479907"/>
-          <c:y val="0.10648148148148148"/>
+          <c:x val="0.23469265904717199"/>
+          <c:y val="6.9966066568410576E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1828,8 +1962,137 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="007671"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="007671"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$24:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$45:$L$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.27527043299409804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20296253757886595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24530103887270405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19061438115857299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20319124152541601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22564200212316099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.164106885745119</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16484236801575403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9452865952779015E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8323953389213408E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4024192948898494E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB78-4B4E-B2D5-0979D04A22C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$31</c:f>
@@ -1958,7 +2221,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -2087,7 +2350,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -2216,7 +2479,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$11</c:f>
@@ -2343,7 +2606,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -2472,7 +2735,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -2717,7 +2980,7 @@
         <c:axId val="1057648927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
+          <c:max val="0.3"/>
           <c:min val="-0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2844,8 +3107,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.69587335492637892"/>
           <c:y val="0.20960848643919511"/>
-          <c:w val="0.27965879265091864"/>
-          <c:h val="0.51562117235345573"/>
+          <c:w val="0.24442990218208868"/>
+          <c:h val="0.67895442937378125"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4388,14 +4651,14 @@
       <selection activeCell="M121" sqref="M121:W121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4466,7 +4729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -4537,7 +4800,7 @@
         <v>0.116799999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -4608,7 +4871,7 @@
         <v>6.2080000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -4679,7 +4942,7 @@
         <v>3.9679999999999903E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -4750,7 +5013,7 @@
         <v>8.7519999999999994E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -4821,7 +5084,7 @@
         <v>7.2666666666666602E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -4892,7 +5155,7 @@
         <v>0.2056</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -4963,7 +5226,7 @@
         <v>0.257786666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -5034,7 +5297,7 @@
         <v>0.530123809523809</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -5105,7 +5368,7 @@
         <v>0.116799999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -5176,7 +5439,7 @@
         <v>0.15820851182190199</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -5247,7 +5510,7 @@
         <v>0.17735917948783</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -5318,7 +5581,7 @@
         <v>0.239883447007779</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -5389,7 +5652,7 @@
         <v>7.2666666666666602E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -5460,7 +5723,7 @@
         <v>0.125191111111111</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -5531,7 +5794,7 @@
         <v>0.13311608465608399</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -5602,7 +5865,7 @@
         <v>0.144364813655873</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -5673,7 +5936,7 @@
         <v>0.116799999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -5744,7 +6007,7 @@
         <v>0.28639999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -5815,7 +6078,7 @@
         <v>0.35519999999999902</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -5886,7 +6149,7 @@
         <v>0.68639999999999901</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -5957,7 +6220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -6028,7 +6291,7 @@
         <v>3.9669421487603301E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -6099,7 +6362,7 @@
         <v>1.48760330578512E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -6170,7 +6433,7 @@
         <v>1.0247933884297501E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -6241,7 +6504,7 @@
         <v>6.8264462809917003E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -6312,7 +6575,7 @@
         <v>2.38292011019283E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -6383,7 +6646,7 @@
         <v>4.0456513183785903E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -6454,7 +6717,7 @@
         <v>5.4230617866981502E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -6525,7 +6788,7 @@
         <v>0.40151908697363198</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -6596,7 +6859,7 @@
         <v>3.9669421487603301E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -6667,7 +6930,7 @@
         <v>3.6850745134046702E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -6738,7 +7001,7 @@
         <v>4.2149890211883E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -6809,7 +7072,7 @@
         <v>0.114313928794297</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -6880,7 +7143,7 @@
         <v>2.38292011019283E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -6951,7 +7214,7 @@
         <v>2.9270628361537401E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -7022,7 +7285,7 @@
         <v>3.1383477633477597E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -7093,7 +7356,7 @@
         <v>4.1198389629366103E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -7164,7 +7427,7 @@
         <v>3.9669421487603301E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -7235,7 +7498,7 @@
         <v>7.1074380165289205E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -7306,7 +7569,7 @@
         <v>9.4214876033057796E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -7377,7 +7640,7 @@
         <v>0.54380165289256099</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -7448,7 +7711,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -7519,7 +7782,7 @@
         <v>9.9199999999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
@@ -7590,7 +7853,7 @@
         <v>7.0080000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
@@ -7661,7 +7924,7 @@
         <v>4.39999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -7732,7 +7995,7 @@
         <v>9.1680000000000008E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
@@ -7803,7 +8066,7 @@
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -7874,7 +8137,7 @@
         <v>0.234133333333333</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -7945,7 +8208,7 @@
         <v>0.28973333333333301</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>30</v>
       </c>
@@ -8016,7 +8279,7 @@
         <v>0.55590857142857097</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>31</v>
       </c>
@@ -8087,7 +8350,7 @@
         <v>9.9199999999999997E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
@@ -8158,7 +8421,7 @@
         <v>0.173286344789191</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>33</v>
       </c>
@@ -8229,7 +8492,7 @@
         <v>0.19321679288226201</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
@@ -8300,7 +8563,7 @@
         <v>0.25649924078645098</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>35</v>
       </c>
@@ -8371,7 +8634,7 @@
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>36</v>
       </c>
@@ -8442,7 +8705,7 @@
         <v>0.13536888888888801</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
@@ -8513,7 +8776,7 @@
         <v>0.143464867724867</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
@@ -8584,7 +8847,7 @@
         <v>0.15570142178183399</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
@@ -8655,7 +8918,7 @@
         <v>9.9199999999999997E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
@@ -8726,7 +8989,7 @@
         <v>0.3216</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>41</v>
       </c>
@@ -8797,7 +9060,7 @@
         <v>0.39839999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>42</v>
       </c>
@@ -8868,7 +9131,7 @@
         <v>0.71359999999999901</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -8939,7 +9202,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>23</v>
       </c>
@@ -9010,7 +9273,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -9081,7 +9344,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -9152,7 +9415,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>26</v>
       </c>
@@ -9223,7 +9486,7 @@
         <v>5.6160000000000003E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>27</v>
       </c>
@@ -9294,7 +9557,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>28</v>
       </c>
@@ -9365,7 +9628,7 @@
         <v>3.4720000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
@@ -9436,7 +9699,7 @@
         <v>4.5226666666666603E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>30</v>
       </c>
@@ -9507,7 +9770,7 @@
         <v>0.33838285714285699</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>31</v>
       </c>
@@ -9578,7 +9841,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>32</v>
       </c>
@@ -9649,7 +9912,7 @@
         <v>2.5829371680692301E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
@@ -9720,7 +9983,7 @@
         <v>2.9553148373126399E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
@@ -9791,7 +10054,7 @@
         <v>8.7332129578659504E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>35</v>
       </c>
@@ -9862,7 +10125,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>36</v>
       </c>
@@ -9933,7 +10196,7 @@
         <v>2.0106666666666599E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>37</v>
       </c>
@@ -10004,7 +10267,7 @@
         <v>2.1619682539682501E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>38</v>
       </c>
@@ -10075,7 +10338,7 @@
         <v>2.7999476616725801E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>39</v>
       </c>
@@ -10146,7 +10409,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>40</v>
       </c>
@@ -10217,7 +10480,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>41</v>
       </c>
@@ -10288,7 +10551,7 @@
         <v>6.08E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>42</v>
       </c>
@@ -10359,7 +10622,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -10430,7 +10693,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>23</v>
       </c>
@@ -10501,7 +10764,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>24</v>
       </c>
@@ -10572,7 +10835,7 @@
         <v>1.312E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>25</v>
       </c>
@@ -10643,7 +10906,7 @@
         <v>2.1919999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>26</v>
       </c>
@@ -10714,7 +10977,7 @@
         <v>7.4720000000000003E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>27</v>
       </c>
@@ -10785,7 +11048,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>28</v>
       </c>
@@ -10856,7 +11119,7 @@
         <v>3.2342857142857097E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>29</v>
       </c>
@@ -10927,7 +11190,7 @@
         <v>0.111502857142857</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>30</v>
       </c>
@@ -10998,7 +11261,7 @@
         <v>0.439445714285714</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -11069,7 +11332,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -11140,7 +11403,7 @@
         <v>2.4568506070185198E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>33</v>
       </c>
@@ -11211,7 +11474,7 @@
         <v>5.3934220607401898E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>34</v>
       </c>
@@ -11282,7 +11545,7 @@
         <v>0.12920433253830099</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>35</v>
       </c>
@@ -11353,7 +11616,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>36</v>
       </c>
@@ -11424,7 +11687,7 @@
         <v>1.7499682539682499E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>37</v>
       </c>
@@ -11495,7 +11758,7 @@
         <v>2.8222423280423199E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>38</v>
       </c>
@@ -11566,7 +11829,7 @@
         <v>4.22391874384523E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>39</v>
       </c>
@@ -11637,7 +11900,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>40</v>
       </c>
@@ -11708,7 +11971,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>41</v>
       </c>
@@ -11779,7 +12042,7 @@
         <v>0.19999999999999901</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>42</v>
       </c>
@@ -11850,7 +12113,7 @@
         <v>0.60640000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -11921,7 +12184,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>23</v>
       </c>
@@ -11992,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>24</v>
       </c>
@@ -12063,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>25</v>
       </c>
@@ -12134,7 +12397,7 @@
         <v>1.6000000000000001E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>26</v>
       </c>
@@ -12205,7 +12468,7 @@
         <v>4.8000000000000001E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>27</v>
       </c>
@@ -12276,7 +12539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>28</v>
       </c>
@@ -12347,7 +12610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>29</v>
       </c>
@@ -12418,7 +12681,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>30</v>
       </c>
@@ -12489,7 +12752,7 @@
         <v>1.4666666666665999E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>31</v>
       </c>
@@ -12560,7 +12823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>32</v>
       </c>
@@ -12631,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>33</v>
       </c>
@@ -12702,7 +12965,7 @@
         <v>1.8802576761019999E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>34</v>
       </c>
@@ -12773,7 +13036,7 @@
         <v>5.8074838148500002E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -12844,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>36</v>
       </c>
@@ -12915,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>37</v>
       </c>
@@ -12986,7 +13249,7 @@
         <v>4.4444444444444399E-5</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>38</v>
       </c>
@@ -13057,7 +13320,7 @@
         <v>1.3022533022529999E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>39</v>
       </c>
@@ -13128,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>40</v>
       </c>
@@ -13199,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>41</v>
       </c>
@@ -13270,7 +13533,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>42</v>
       </c>
@@ -13350,18 +13613,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FFB291-E4F5-4E4E-B884-4FDFA1C7897B}">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -13399,7 +13662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
@@ -13437,7 +13700,7 @@
         <v>0.13119999999999901</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>155</v>
       </c>
@@ -13486,7 +13749,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4">
         <f>B3-B2</f>
         <v>7.9999999999989801E-3</v>
@@ -13543,7 +13806,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>154</v>
       </c>
@@ -13581,7 +13844,7 @@
         <v>9.9173553719007993E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>155</v>
       </c>
@@ -13630,7 +13893,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7">
         <f>B6-B5</f>
         <v>0.1792</v>
@@ -13687,7 +13950,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>156</v>
       </c>
@@ -13725,7 +13988,7 @@
         <v>0.13439999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>155</v>
       </c>
@@ -13774,7 +14037,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10">
         <f>B9-B8</f>
         <v>-9.5999999999999974E-3</v>
@@ -13831,7 +14094,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>157</v>
       </c>
@@ -13869,7 +14132,7 @@
         <v>1.12E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>155</v>
       </c>
@@ -13918,7 +14181,7 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13">
         <f>B12-B11</f>
         <v>7.3599999999999999E-2</v>
@@ -13975,7 +14238,7 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>158</v>
       </c>
@@ -14013,7 +14276,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>155</v>
       </c>
@@ -14062,7 +14325,7 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16">
         <f>B15-B14</f>
         <v>-4.7999999999999987E-3</v>
@@ -14119,7 +14382,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
@@ -14157,7 +14420,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>155</v>
       </c>
@@ -14206,7 +14469,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B19">
         <f>B18-B17</f>
         <v>0</v>
@@ -14263,7 +14526,7 @@
       <c r="V19"/>
       <c r="W19"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>161</v>
       </c>
@@ -14312,7 +14575,7 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>155</v>
       </c>
@@ -14361,7 +14624,7 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B22">
         <f>B21-B20</f>
         <v>0.26534653465346597</v>
@@ -14371,7 +14634,7 @@
         <v>0.20792079207920799</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="C22:L22" si="6">D21-D20</f>
+        <f t="shared" ref="D22:L22" si="6">D21-D20</f>
         <v>0.24356435643564395</v>
       </c>
       <c r="E22">
@@ -14418,7 +14681,7 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -14442,7 +14705,7 @@
       <c r="V23"/>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -14491,7 +14754,7 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>153</v>
       </c>
@@ -14529,7 +14792,7 @@
         <v>0.183991547861516</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>155</v>
       </c>
@@ -14567,7 +14830,7 @@
         <v>0.15820851182190199</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B27">
         <f>B26-B25</f>
         <v>-9.0413229804570117E-3</v>
@@ -14624,7 +14887,7 @@
       <c r="V27"/>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>154</v>
       </c>
@@ -14662,7 +14925,7 @@
         <v>1.0544073611637599E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>155</v>
       </c>
@@ -14700,7 +14963,7 @@
         <v>3.6850745134046702E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B30">
         <f>B29-B28</f>
         <v>0.19494559325963873</v>
@@ -14757,7 +15020,7 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>156</v>
       </c>
@@ -14795,7 +15058,7 @@
         <v>0.214554066144098</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>155</v>
       </c>
@@ -14833,7 +15096,7 @@
         <v>0.173286344789191</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B33">
         <f>B32-B31</f>
         <v>1.4691382559400279E-3</v>
@@ -14890,7 +15153,7 @@
       <c r="V33"/>
       <c r="W33"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>157</v>
       </c>
@@ -14928,7 +15191,7 @@
         <v>1.52463557321613E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
@@ -14966,7 +15229,7 @@
         <v>2.5829371680692301E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B36">
         <f>B35-B34</f>
         <v>6.6245298941532402E-2</v>
@@ -15023,7 +15286,7 @@
       <c r="V36"/>
       <c r="W36"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>158</v>
       </c>
@@ -15061,7 +15324,7 @@
         <v>4.1935304887711702E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>155</v>
       </c>
@@ -15099,7 +15362,7 @@
         <v>2.4568506070185198E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B39">
         <f>B38-B37</f>
         <v>-8.4598394856182021E-3</v>
@@ -15156,7 +15419,7 @@
       <c r="V39"/>
       <c r="W39"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
@@ -15194,7 +15457,7 @@
         <v>2.1426563284376999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>155</v>
       </c>
@@ -15232,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <f>B41-B40</f>
         <v>-1.2831048768558999E-3</v>
@@ -15278,7 +15541,7 @@
         <v>-2.1426563284376999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>161</v>
       </c>
@@ -15316,7 +15579,7 @@
         <v>3.2838700938595498E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>155</v>
       </c>
@@ -15354,7 +15617,7 @@
         <v>0.126862893887494</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <f>B44-B43</f>
         <v>0.27527043299409804</v>

--- a/output/2015SB12/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
+++ b/output/2015SB12/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfani/Github/fani-lab/LADy/main/output/2015SB12/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\2015SB12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BF535E-9028-7B4D-B468-F513FEE59B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D5E0F-8970-4861-9F78-CCD51DE60E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="163">
   <si>
     <t>metric</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>cat</t>
+  </si>
+  <si>
+    <t>bert-e2e-absa</t>
   </si>
 </sst>
 </file>
@@ -532,13 +535,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Ubuntu Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -561,10 +569,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1966,7 +1975,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$43</c:f>
+              <c:f>Sheet2!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2001,7 +2010,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$24:$L$24</c:f>
+              <c:f>Sheet2!$B$27:$L$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2043,7 +2052,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$45:$L$45</c:f>
+              <c:f>Sheet2!$B$48:$L$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2095,7 +2104,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$31</c:f>
+              <c:f>Sheet2!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2172,7 +2181,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$33:$L$33</c:f>
+              <c:f>Sheet2!$B$36:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2301,7 +2310,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$27:$L$27</c:f>
+              <c:f>Sheet2!$B$30:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2430,7 +2439,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$30:$L$30</c:f>
+              <c:f>Sheet2!$B$33:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2557,7 +2566,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$36:$L$36</c:f>
+              <c:f>Sheet2!$B$39:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2686,7 +2695,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$39:$L$39</c:f>
+              <c:f>Sheet2!$B$42:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2813,7 +2822,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$42:$L$42</c:f>
+              <c:f>Sheet2!$B$45:$L$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4279,7 +4288,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>361614</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>136152</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4317,7 +4326,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>19834</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4647,18 +4656,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2634B536-5F71-4955-8BD1-0C94F2FA36C2}">
   <dimension ref="A1:W131"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M121" sqref="M121:W121"/>
+    <sheetView topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4729,7 +4738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -4800,7 +4809,7 @@
         <v>0.116799999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -4871,7 +4880,7 @@
         <v>6.2080000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -4942,7 +4951,7 @@
         <v>3.9679999999999903E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -5013,7 +5022,7 @@
         <v>8.7519999999999994E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -5084,7 +5093,7 @@
         <v>7.2666666666666602E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -5155,7 +5164,7 @@
         <v>0.2056</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -5226,7 +5235,7 @@
         <v>0.257786666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -5297,7 +5306,7 @@
         <v>0.530123809523809</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -5368,7 +5377,7 @@
         <v>0.116799999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -5439,7 +5448,7 @@
         <v>0.15820851182190199</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -5510,7 +5519,7 @@
         <v>0.17735917948783</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -5581,7 +5590,7 @@
         <v>0.239883447007779</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -5652,7 +5661,7 @@
         <v>7.2666666666666602E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -5723,7 +5732,7 @@
         <v>0.125191111111111</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -5794,7 +5803,7 @@
         <v>0.13311608465608399</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -5865,7 +5874,7 @@
         <v>0.144364813655873</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -5936,7 +5945,7 @@
         <v>0.116799999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -6007,7 +6016,7 @@
         <v>0.28639999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -6078,7 +6087,7 @@
         <v>0.35519999999999902</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -6149,7 +6158,7 @@
         <v>0.68639999999999901</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -6220,7 +6229,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -6291,7 +6300,7 @@
         <v>3.9669421487603301E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -6362,7 +6371,7 @@
         <v>1.48760330578512E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -6433,7 +6442,7 @@
         <v>1.0247933884297501E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -6504,7 +6513,7 @@
         <v>6.8264462809917003E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -6575,7 +6584,7 @@
         <v>2.38292011019283E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -6646,7 +6655,7 @@
         <v>4.0456513183785903E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -6717,7 +6726,7 @@
         <v>5.4230617866981502E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -6788,7 +6797,7 @@
         <v>0.40151908697363198</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -6859,7 +6868,7 @@
         <v>3.9669421487603301E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -6930,7 +6939,7 @@
         <v>3.6850745134046702E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -7001,7 +7010,7 @@
         <v>4.2149890211883E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -7072,7 +7081,7 @@
         <v>0.114313928794297</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -7143,7 +7152,7 @@
         <v>2.38292011019283E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -7214,7 +7223,7 @@
         <v>2.9270628361537401E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -7285,7 +7294,7 @@
         <v>3.1383477633477597E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -7356,7 +7365,7 @@
         <v>4.1198389629366103E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -7427,7 +7436,7 @@
         <v>3.9669421487603301E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -7498,7 +7507,7 @@
         <v>7.1074380165289205E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -7569,7 +7578,7 @@
         <v>9.4214876033057796E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -7640,7 +7649,7 @@
         <v>0.54380165289256099</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -7711,7 +7720,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -7782,7 +7791,7 @@
         <v>9.9199999999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
@@ -7853,7 +7862,7 @@
         <v>7.0080000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
@@ -7924,7 +7933,7 @@
         <v>4.39999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -7995,7 +8004,7 @@
         <v>9.1680000000000008E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
@@ -8066,7 +8075,7 @@
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -8137,7 +8146,7 @@
         <v>0.234133333333333</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -8208,7 +8217,7 @@
         <v>0.28973333333333301</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>30</v>
       </c>
@@ -8279,7 +8288,7 @@
         <v>0.55590857142857097</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>31</v>
       </c>
@@ -8350,7 +8359,7 @@
         <v>9.9199999999999997E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
@@ -8421,7 +8430,7 @@
         <v>0.173286344789191</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>33</v>
       </c>
@@ -8492,7 +8501,7 @@
         <v>0.19321679288226201</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
@@ -8563,7 +8572,7 @@
         <v>0.25649924078645098</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>35</v>
       </c>
@@ -8634,7 +8643,7 @@
         <v>6.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>36</v>
       </c>
@@ -8705,7 +8714,7 @@
         <v>0.13536888888888801</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
@@ -8776,7 +8785,7 @@
         <v>0.143464867724867</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
@@ -8847,7 +8856,7 @@
         <v>0.15570142178183399</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>39</v>
       </c>
@@ -8918,7 +8927,7 @@
         <v>9.9199999999999997E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
@@ -8989,7 +8998,7 @@
         <v>0.3216</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>41</v>
       </c>
@@ -9060,7 +9069,7 @@
         <v>0.39839999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>42</v>
       </c>
@@ -9131,7 +9140,7 @@
         <v>0.71359999999999901</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -9202,7 +9211,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>23</v>
       </c>
@@ -9273,7 +9282,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -9344,7 +9353,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -9415,7 +9424,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>26</v>
       </c>
@@ -9486,7 +9495,7 @@
         <v>5.6160000000000003E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>27</v>
       </c>
@@ -9557,7 +9566,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>28</v>
       </c>
@@ -9628,7 +9637,7 @@
         <v>3.4720000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
@@ -9699,7 +9708,7 @@
         <v>4.5226666666666603E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>30</v>
       </c>
@@ -9770,7 +9779,7 @@
         <v>0.33838285714285699</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>31</v>
       </c>
@@ -9841,7 +9850,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>32</v>
       </c>
@@ -9912,7 +9921,7 @@
         <v>2.5829371680692301E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
@@ -9983,7 +9992,7 @@
         <v>2.9553148373126399E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
@@ -10054,7 +10063,7 @@
         <v>8.7332129578659504E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>35</v>
       </c>
@@ -10125,7 +10134,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>36</v>
       </c>
@@ -10196,7 +10205,7 @@
         <v>2.0106666666666599E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>37</v>
       </c>
@@ -10267,7 +10276,7 @@
         <v>2.1619682539682501E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>38</v>
       </c>
@@ -10338,7 +10347,7 @@
         <v>2.7999476616725801E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>39</v>
       </c>
@@ -10409,7 +10418,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>40</v>
       </c>
@@ -10480,7 +10489,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>41</v>
       </c>
@@ -10551,7 +10560,7 @@
         <v>6.08E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>42</v>
       </c>
@@ -10622,7 +10631,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -10693,7 +10702,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>23</v>
       </c>
@@ -10764,7 +10773,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>24</v>
       </c>
@@ -10835,7 +10844,7 @@
         <v>1.312E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>25</v>
       </c>
@@ -10906,7 +10915,7 @@
         <v>2.1919999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>26</v>
       </c>
@@ -10977,7 +10986,7 @@
         <v>7.4720000000000003E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>27</v>
       </c>
@@ -11048,7 +11057,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>28</v>
       </c>
@@ -11119,7 +11128,7 @@
         <v>3.2342857142857097E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>29</v>
       </c>
@@ -11190,7 +11199,7 @@
         <v>0.111502857142857</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>30</v>
       </c>
@@ -11261,7 +11270,7 @@
         <v>0.439445714285714</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -11332,7 +11341,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>32</v>
       </c>
@@ -11403,7 +11412,7 @@
         <v>2.4568506070185198E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>33</v>
       </c>
@@ -11474,7 +11483,7 @@
         <v>5.3934220607401898E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>34</v>
       </c>
@@ -11545,7 +11554,7 @@
         <v>0.12920433253830099</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>35</v>
       </c>
@@ -11616,7 +11625,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>36</v>
       </c>
@@ -11687,7 +11696,7 @@
         <v>1.7499682539682499E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>37</v>
       </c>
@@ -11758,7 +11767,7 @@
         <v>2.8222423280423199E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>38</v>
       </c>
@@ -11829,7 +11838,7 @@
         <v>4.22391874384523E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>39</v>
       </c>
@@ -11900,7 +11909,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>40</v>
       </c>
@@ -11971,7 +11980,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>41</v>
       </c>
@@ -12042,7 +12051,7 @@
         <v>0.19999999999999901</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>42</v>
       </c>
@@ -12113,7 +12122,7 @@
         <v>0.60640000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -12184,7 +12193,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>23</v>
       </c>
@@ -12255,7 +12264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>24</v>
       </c>
@@ -12326,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>25</v>
       </c>
@@ -12397,7 +12406,7 @@
         <v>1.6000000000000001E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>26</v>
       </c>
@@ -12468,7 +12477,7 @@
         <v>4.8000000000000001E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>27</v>
       </c>
@@ -12539,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>28</v>
       </c>
@@ -12610,7 +12619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>29</v>
       </c>
@@ -12681,7 +12690,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>30</v>
       </c>
@@ -12752,7 +12761,7 @@
         <v>1.4666666666665999E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>31</v>
       </c>
@@ -12823,7 +12832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>32</v>
       </c>
@@ -12894,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>33</v>
       </c>
@@ -12965,7 +12974,7 @@
         <v>1.8802576761019999E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>34</v>
       </c>
@@ -13036,7 +13045,7 @@
         <v>5.8074838148500002E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>35</v>
       </c>
@@ -13107,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>36</v>
       </c>
@@ -13178,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>37</v>
       </c>
@@ -13249,7 +13258,7 @@
         <v>4.4444444444444399E-5</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>38</v>
       </c>
@@ -13320,7 +13329,7 @@
         <v>1.3022533022529999E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>39</v>
       </c>
@@ -13391,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>40</v>
       </c>
@@ -13462,7 +13471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>41</v>
       </c>
@@ -13533,7 +13542,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>42</v>
       </c>
@@ -13611,20 +13620,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FFB291-E4F5-4E4E-B884-4FDFA1C7897B}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="23" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -13662,7 +13671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
@@ -13700,7 +13709,7 @@
         <v>0.13119999999999901</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>155</v>
       </c>
@@ -13749,7 +13758,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>B3-B2</f>
         <v>7.9999999999989801E-3</v>
@@ -13806,7 +13815,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>154</v>
       </c>
@@ -13844,7 +13853,7 @@
         <v>9.9173553719007993E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>155</v>
       </c>
@@ -13893,7 +13902,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>B6-B5</f>
         <v>0.1792</v>
@@ -13950,7 +13959,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>156</v>
       </c>
@@ -13988,7 +13997,7 @@
         <v>0.13439999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>155</v>
       </c>
@@ -14037,7 +14046,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>B9-B8</f>
         <v>-9.5999999999999974E-3</v>
@@ -14094,7 +14103,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>157</v>
       </c>
@@ -14132,7 +14141,7 @@
         <v>1.12E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>155</v>
       </c>
@@ -14181,7 +14190,7 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>B12-B11</f>
         <v>7.3599999999999999E-2</v>
@@ -14238,7 +14247,7 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>158</v>
       </c>
@@ -14276,7 +14285,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>155</v>
       </c>
@@ -14325,7 +14334,7 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B15-B14</f>
         <v>-4.7999999999999987E-3</v>
@@ -14382,7 +14391,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
@@ -14420,7 +14429,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>155</v>
       </c>
@@ -14469,7 +14478,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>B18-B17</f>
         <v>0</v>
@@ -14526,7 +14535,7 @@
       <c r="V19"/>
       <c r="W19"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>161</v>
       </c>
@@ -14575,7 +14584,7 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>155</v>
       </c>
@@ -14624,7 +14633,7 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>B21-B20</f>
         <v>0.26534653465346597</v>
@@ -14681,18 +14690,43 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23">
+        <v>0.7</v>
+      </c>
+      <c r="C23">
+        <v>0.64677419354838706</v>
+      </c>
+      <c r="D23">
+        <v>0.56612903225806399</v>
+      </c>
+      <c r="E23">
+        <v>0.49032258064516099</v>
+      </c>
+      <c r="F23">
+        <v>0.45806451612903198</v>
+      </c>
+      <c r="G23">
+        <v>0.34354838709677399</v>
+      </c>
+      <c r="H23">
+        <v>0.309677419354838</v>
+      </c>
+      <c r="I23">
+        <v>0.209677419354838</v>
+      </c>
+      <c r="J23">
+        <v>0.15161290322580601</v>
+      </c>
+      <c r="K23">
+        <v>8.2258064516129006E-2</v>
+      </c>
+      <c r="L23">
+        <v>1.6129032258064498E-2</v>
+      </c>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
@@ -14705,42 +14739,42 @@
       <c r="V23"/>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.66129032258064502</v>
       </c>
       <c r="C24">
-        <v>0.1</v>
+        <v>0.60967741935483799</v>
       </c>
       <c r="D24">
-        <v>0.2</v>
+        <v>0.532258064516129</v>
       </c>
       <c r="E24">
-        <v>0.3</v>
+        <v>0.47419354838709599</v>
       </c>
       <c r="F24">
-        <v>0.4</v>
+        <v>0.385483870967742</v>
       </c>
       <c r="G24">
-        <v>0.5</v>
+        <v>0.36290322580645101</v>
       </c>
       <c r="H24">
-        <v>0.6</v>
+        <v>0.25322580645161202</v>
       </c>
       <c r="I24">
-        <v>0.7</v>
+        <v>0.209677419354838</v>
       </c>
       <c r="J24">
-        <v>0.8</v>
+        <v>0.138709677419354</v>
       </c>
       <c r="K24">
-        <v>0.9</v>
+        <v>9.0322580645161299E-2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>1.7741935483870899E-2</v>
       </c>
       <c r="M24"/>
       <c r="N24"/>
@@ -14754,126 +14788,123 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>153</v>
-      </c>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>0.24254063504544901</v>
+        <f>B24-B23</f>
+        <v>-3.8709677419354938E-2</v>
       </c>
       <c r="C25">
-        <v>0.22897830928568899</v>
+        <f t="shared" ref="C25:L25" si="7">C24-C23</f>
+        <v>-3.7096774193549065E-2</v>
       </c>
       <c r="D25">
-        <v>0.23115059686952399</v>
+        <f t="shared" si="7"/>
+        <v>-3.3870967741934987E-2</v>
       </c>
       <c r="E25">
-        <v>0.23409983899780801</v>
+        <f t="shared" si="7"/>
+        <v>-1.6129032258065001E-2</v>
       </c>
       <c r="F25">
-        <v>0.21827218309434701</v>
+        <f t="shared" si="7"/>
+        <v>-7.2580645161289981E-2</v>
       </c>
       <c r="G25">
-        <v>0.20651839523203799</v>
+        <f t="shared" si="7"/>
+        <v>1.9354838709677025E-2</v>
       </c>
       <c r="H25">
-        <v>0.20885116266548701</v>
+        <f t="shared" si="7"/>
+        <v>-5.6451612903225978E-2</v>
       </c>
       <c r="I25">
-        <v>0.206593866900384</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.19255147710609499</v>
+        <f t="shared" si="7"/>
+        <v>-1.2903225806452007E-2</v>
       </c>
       <c r="K25">
-        <v>0.191056524147833</v>
+        <f t="shared" si="7"/>
+        <v>8.0645161290322925E-3</v>
       </c>
       <c r="L25">
-        <v>0.183991547861516</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26">
-        <v>0.233499312064992</v>
-      </c>
-      <c r="C26">
-        <v>0.22711386354326599</v>
-      </c>
-      <c r="D26">
-        <v>0.222174008230656</v>
-      </c>
-      <c r="E26">
-        <v>0.208834769991321</v>
-      </c>
-      <c r="F26">
-        <v>0.20578359120090001</v>
-      </c>
-      <c r="G26">
-        <v>0.19554189782613801</v>
-      </c>
-      <c r="H26">
-        <v>0.18192871023389601</v>
-      </c>
-      <c r="I26">
-        <v>0.176816837924271</v>
-      </c>
-      <c r="J26">
-        <v>0.173950888218211</v>
-      </c>
-      <c r="K26">
-        <v>0.163353715259656</v>
-      </c>
-      <c r="L26">
-        <v>0.15820851182190199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1.6129032258064002E-3</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B27">
-        <f>B26-B25</f>
-        <v>-9.0413229804570117E-3</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:L27" si="7">C26-C25</f>
-        <v>-1.8644457424230043E-3</v>
+        <v>0.1</v>
       </c>
       <c r="D27">
-        <f t="shared" si="7"/>
-        <v>-8.9765886388679939E-3</v>
+        <v>0.2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="7"/>
-        <v>-2.5265069006487006E-2</v>
+        <v>0.3</v>
       </c>
       <c r="F27">
-        <f t="shared" si="7"/>
-        <v>-1.2488591893447004E-2</v>
+        <v>0.4</v>
       </c>
       <c r="G27">
-        <f t="shared" si="7"/>
-        <v>-1.0976497405899982E-2</v>
+        <v>0.5</v>
       </c>
       <c r="H27">
-        <f t="shared" si="7"/>
-        <v>-2.6922452431590999E-2</v>
+        <v>0.6</v>
       </c>
       <c r="I27">
-        <f t="shared" si="7"/>
-        <v>-2.9777028976113007E-2</v>
+        <v>0.7</v>
       </c>
       <c r="J27">
-        <f t="shared" si="7"/>
-        <v>-1.860058888788399E-2</v>
+        <v>0.8</v>
       </c>
       <c r="K27">
-        <f t="shared" si="7"/>
-        <v>-2.7702808888177E-2</v>
+        <v>0.9</v>
       </c>
       <c r="L27">
-        <f t="shared" si="7"/>
-        <v>-2.5783036039614016E-2</v>
+        <v>1</v>
       </c>
       <c r="M27"/>
       <c r="N27"/>
@@ -14887,126 +14918,126 @@
       <c r="V27"/>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28">
-        <v>3.9230027356000299E-2</v>
+        <v>0.24254063504544901</v>
       </c>
       <c r="C28">
-        <v>4.049122039967E-2</v>
+        <v>0.22897830928568899</v>
       </c>
       <c r="D28">
-        <v>2.9533470565546199E-2</v>
+        <v>0.23115059686952399</v>
       </c>
       <c r="E28">
-        <v>2.3285467569399899E-2</v>
+        <v>0.23409983899780801</v>
       </c>
       <c r="F28">
-        <v>1.5223699151745901E-2</v>
+        <v>0.21827218309434701</v>
       </c>
       <c r="G28">
-        <v>1.5336690742718401E-2</v>
+        <v>0.20651839523203799</v>
       </c>
       <c r="H28">
-        <v>1.6617643025382101E-2</v>
+        <v>0.20885116266548701</v>
       </c>
       <c r="I28">
-        <v>1.0799498990888201E-2</v>
+        <v>0.206593866900384</v>
       </c>
       <c r="J28">
-        <v>1.1115308062363299E-2</v>
+        <v>0.19255147710609499</v>
       </c>
       <c r="K28">
-        <v>8.6347734781333004E-3</v>
+        <v>0.191056524147833</v>
       </c>
       <c r="L28">
-        <v>1.0544073611637599E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0.183991547861516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B29">
-        <v>0.23417562061563901</v>
+        <v>0.233499312064992</v>
       </c>
       <c r="C29">
-        <v>0.214459446452094</v>
+        <v>0.22711386354326599</v>
       </c>
       <c r="D29">
-        <v>0.164911591913601</v>
+        <v>0.222174008230656</v>
       </c>
       <c r="E29">
-        <v>0.108209025287466</v>
+        <v>0.208834769991321</v>
       </c>
       <c r="F29">
-        <v>8.4284621938839593E-2</v>
+        <v>0.20578359120090001</v>
       </c>
       <c r="G29">
-        <v>7.8567150830720203E-2</v>
+        <v>0.19554189782613801</v>
       </c>
       <c r="H29">
-        <v>6.5873094749660202E-2</v>
+        <v>0.18192871023389601</v>
       </c>
       <c r="I29">
-        <v>5.7092279401870498E-2</v>
+        <v>0.176816837924271</v>
       </c>
       <c r="J29">
-        <v>4.7628212052077103E-2</v>
+        <v>0.173950888218211</v>
       </c>
       <c r="K29">
-        <v>4.06864982981592E-2</v>
+        <v>0.163353715259656</v>
       </c>
       <c r="L29">
-        <v>3.6850745134046702E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0.15820851182190199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30">
         <f>B29-B28</f>
-        <v>0.19494559325963873</v>
+        <v>-9.0413229804570117E-3</v>
       </c>
       <c r="C30">
         <f t="shared" ref="C30:L30" si="8">C29-C28</f>
-        <v>0.17396822605242401</v>
+        <v>-1.8644457424230043E-3</v>
       </c>
       <c r="D30">
         <f t="shared" si="8"/>
-        <v>0.1353781213480548</v>
+        <v>-8.9765886388679939E-3</v>
       </c>
       <c r="E30">
         <f t="shared" si="8"/>
-        <v>8.4923557718066089E-2</v>
+        <v>-2.5265069006487006E-2</v>
       </c>
       <c r="F30">
         <f t="shared" si="8"/>
-        <v>6.9060922787093693E-2</v>
+        <v>-1.2488591893447004E-2</v>
       </c>
       <c r="G30">
         <f t="shared" si="8"/>
-        <v>6.3230460088001803E-2</v>
+        <v>-1.0976497405899982E-2</v>
       </c>
       <c r="H30">
         <f t="shared" si="8"/>
-        <v>4.9255451724278101E-2</v>
+        <v>-2.6922452431590999E-2</v>
       </c>
       <c r="I30">
         <f t="shared" si="8"/>
-        <v>4.6292780410982295E-2</v>
+        <v>-2.9777028976113007E-2</v>
       </c>
       <c r="J30">
         <f t="shared" si="8"/>
-        <v>3.6512903989713803E-2</v>
+        <v>-1.860058888788399E-2</v>
       </c>
       <c r="K30">
         <f t="shared" si="8"/>
-        <v>3.2051724820025898E-2</v>
+        <v>-2.7702808888177E-2</v>
       </c>
       <c r="L30">
         <f t="shared" si="8"/>
-        <v>2.6306671522409102E-2</v>
+        <v>-2.5783036039614016E-2</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -15020,126 +15051,126 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B31">
-        <v>0.28403081952027698</v>
+        <v>3.9230027356000299E-2</v>
       </c>
       <c r="C31">
-        <v>0.280984729683045</v>
+        <v>4.049122039967E-2</v>
       </c>
       <c r="D31">
-        <v>0.26713453004905102</v>
+        <v>2.9533470565546199E-2</v>
       </c>
       <c r="E31">
-        <v>0.269090841723999</v>
+        <v>2.3285467569399899E-2</v>
       </c>
       <c r="F31">
-        <v>0.26500160590698602</v>
+        <v>1.5223699151745901E-2</v>
       </c>
       <c r="G31">
-        <v>0.24675329122951101</v>
+        <v>1.5336690742718401E-2</v>
       </c>
       <c r="H31">
-        <v>0.24280872991969199</v>
+        <v>1.6617643025382101E-2</v>
       </c>
       <c r="I31">
-        <v>0.23779758007756999</v>
+        <v>1.0799498990888201E-2</v>
       </c>
       <c r="J31">
-        <v>0.22806874540362501</v>
+        <v>1.1115308062363299E-2</v>
       </c>
       <c r="K31">
-        <v>0.22067960269106501</v>
+        <v>8.6347734781333004E-3</v>
       </c>
       <c r="L31">
-        <v>0.214554066144098</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1.0544073611637599E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B32">
-        <v>0.28549995777621701</v>
+        <v>0.23417562061563901</v>
       </c>
       <c r="C32">
-        <v>0.26873771122622703</v>
+        <v>0.214459446452094</v>
       </c>
       <c r="D32">
-        <v>0.26222865611880702</v>
+        <v>0.164911591913601</v>
       </c>
       <c r="E32">
-        <v>0.25728317977460002</v>
+        <v>0.108209025287466</v>
       </c>
       <c r="F32">
-        <v>0.24223131670725101</v>
+        <v>8.4284621938839593E-2</v>
       </c>
       <c r="G32">
-        <v>0.23043523628753201</v>
+        <v>7.8567150830720203E-2</v>
       </c>
       <c r="H32">
-        <v>0.211797669195501</v>
+        <v>6.5873094749660202E-2</v>
       </c>
       <c r="I32">
-        <v>0.20303760740975399</v>
+        <v>5.7092279401870498E-2</v>
       </c>
       <c r="J32">
-        <v>0.18951463022180601</v>
+        <v>4.7628212052077103E-2</v>
       </c>
       <c r="K32">
-        <v>0.18287166733577001</v>
+        <v>4.06864982981592E-2</v>
       </c>
       <c r="L32">
-        <v>0.173286344789191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+        <v>3.6850745134046702E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>B32-B31</f>
-        <v>1.4691382559400279E-3</v>
+        <v>0.19494559325963873</v>
       </c>
       <c r="C33">
         <f t="shared" ref="C33:L33" si="9">C32-C31</f>
-        <v>-1.2247018456817971E-2</v>
+        <v>0.17396822605242401</v>
       </c>
       <c r="D33">
         <f t="shared" si="9"/>
-        <v>-4.905873930243998E-3</v>
+        <v>0.1353781213480548</v>
       </c>
       <c r="E33">
         <f t="shared" si="9"/>
-        <v>-1.1807661949398973E-2</v>
+        <v>8.4923557718066089E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="9"/>
-        <v>-2.2770289199735005E-2</v>
+        <v>6.9060922787093693E-2</v>
       </c>
       <c r="G33">
         <f t="shared" si="9"/>
-        <v>-1.6318054941978993E-2</v>
+        <v>6.3230460088001803E-2</v>
       </c>
       <c r="H33">
         <f t="shared" si="9"/>
-        <v>-3.1011060724190992E-2</v>
+        <v>4.9255451724278101E-2</v>
       </c>
       <c r="I33">
         <f t="shared" si="9"/>
-        <v>-3.4759972667815997E-2</v>
+        <v>4.6292780410982295E-2</v>
       </c>
       <c r="J33">
         <f t="shared" si="9"/>
-        <v>-3.8554115181819004E-2</v>
+        <v>3.6512903989713803E-2</v>
       </c>
       <c r="K33">
         <f t="shared" si="9"/>
-        <v>-3.7807935355295003E-2</v>
+        <v>3.2051724820025898E-2</v>
       </c>
       <c r="L33">
         <f t="shared" si="9"/>
-        <v>-4.1267721354907E-2</v>
+        <v>2.6306671522409102E-2</v>
       </c>
       <c r="M33"/>
       <c r="N33"/>
@@ -15153,126 +15184,126 @@
       <c r="V33"/>
       <c r="W33"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B34">
-        <v>6.9647427567202996E-3</v>
+        <v>0.28403081952027698</v>
       </c>
       <c r="C34">
-        <v>7.9162990408356993E-3</v>
+        <v>0.280984729683045</v>
       </c>
       <c r="D34">
-        <v>1.2390121637770901E-2</v>
+        <v>0.26713453004905102</v>
       </c>
       <c r="E34">
-        <v>1.15222857731784E-2</v>
+        <v>0.269090841723999</v>
       </c>
       <c r="F34">
-        <v>1.45309798099776E-2</v>
+        <v>0.26500160590698602</v>
       </c>
       <c r="G34">
-        <v>1.04782166168793E-2</v>
+        <v>0.24675329122951101</v>
       </c>
       <c r="H34">
-        <v>9.9864957945419996E-3</v>
+        <v>0.24280872991969199</v>
       </c>
       <c r="I34">
-        <v>1.1560310320058401E-2</v>
+        <v>0.23779758007756999</v>
       </c>
       <c r="J34">
-        <v>1.3151753007267401E-2</v>
+        <v>0.22806874540362501</v>
       </c>
       <c r="K34">
-        <v>9.8014828506998997E-3</v>
+        <v>0.22067960269106501</v>
       </c>
       <c r="L34">
-        <v>1.52463557321613E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0.214554066144098</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B35">
-        <v>7.3210041698252695E-2</v>
+        <v>0.28549995777621701</v>
       </c>
       <c r="C35">
-        <v>6.6247653983658394E-2</v>
+        <v>0.26873771122622703</v>
       </c>
       <c r="D35">
-        <v>6.1861336052133203E-2</v>
+        <v>0.26222865611880702</v>
       </c>
       <c r="E35">
-        <v>5.9369352331762097E-2</v>
+        <v>0.25728317977460002</v>
       </c>
       <c r="F35">
-        <v>5.57836351087279E-2</v>
+        <v>0.24223131670725101</v>
       </c>
       <c r="G35">
-        <v>4.8218507204846703E-2</v>
+        <v>0.23043523628753201</v>
       </c>
       <c r="H35">
-        <v>4.6512946397236403E-2</v>
+        <v>0.211797669195501</v>
       </c>
       <c r="I35">
-        <v>3.8440899567626897E-2</v>
+        <v>0.20303760740975399</v>
       </c>
       <c r="J35">
-        <v>3.5661959976534499E-2</v>
+        <v>0.18951463022180601</v>
       </c>
       <c r="K35">
-        <v>3.1400773127764799E-2</v>
+        <v>0.18287166733577001</v>
       </c>
       <c r="L35">
-        <v>2.5829371680692301E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0.173286344789191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B36">
         <f>B35-B34</f>
-        <v>6.6245298941532402E-2</v>
+        <v>1.4691382559400279E-3</v>
       </c>
       <c r="C36">
         <f t="shared" ref="C36:L36" si="10">C35-C34</f>
-        <v>5.8331354942822697E-2</v>
+        <v>-1.2247018456817971E-2</v>
       </c>
       <c r="D36">
         <f t="shared" si="10"/>
-        <v>4.9471214414362301E-2</v>
+        <v>-4.905873930243998E-3</v>
       </c>
       <c r="E36">
         <f t="shared" si="10"/>
-        <v>4.7847066558583701E-2</v>
+        <v>-1.1807661949398973E-2</v>
       </c>
       <c r="F36">
         <f t="shared" si="10"/>
-        <v>4.1252655298750301E-2</v>
+        <v>-2.2770289199735005E-2</v>
       </c>
       <c r="G36">
         <f t="shared" si="10"/>
-        <v>3.7740290587967407E-2</v>
+        <v>-1.6318054941978993E-2</v>
       </c>
       <c r="H36">
         <f t="shared" si="10"/>
-        <v>3.6526450602694403E-2</v>
+        <v>-3.1011060724190992E-2</v>
       </c>
       <c r="I36">
         <f t="shared" si="10"/>
-        <v>2.6880589247568497E-2</v>
+        <v>-3.4759972667815997E-2</v>
       </c>
       <c r="J36">
         <f t="shared" si="10"/>
-        <v>2.2510206969267098E-2</v>
+        <v>-3.8554115181819004E-2</v>
       </c>
       <c r="K36">
         <f t="shared" si="10"/>
-        <v>2.1599290277064899E-2</v>
+        <v>-3.7807935355295003E-2</v>
       </c>
       <c r="L36">
         <f t="shared" si="10"/>
-        <v>1.0583015948531001E-2</v>
+        <v>-4.1267721354907E-2</v>
       </c>
       <c r="M36"/>
       <c r="N36"/>
@@ -15286,126 +15317,126 @@
       <c r="V36"/>
       <c r="W36"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B37">
-        <v>3.8704582053208703E-2</v>
+        <v>6.9647427567202996E-3</v>
       </c>
       <c r="C37">
-        <v>3.8829067639362697E-2</v>
+        <v>7.9162990408356993E-3</v>
       </c>
       <c r="D37">
-        <v>3.9902712733777802E-2</v>
+        <v>1.2390121637770901E-2</v>
       </c>
       <c r="E37">
-        <v>3.7296856593061603E-2</v>
+        <v>1.15222857731784E-2</v>
       </c>
       <c r="F37">
-        <v>3.4537014554100701E-2</v>
+        <v>1.45309798099776E-2</v>
       </c>
       <c r="G37">
-        <v>3.6879533859305202E-2</v>
+        <v>1.04782166168793E-2</v>
       </c>
       <c r="H37">
-        <v>3.6051110653010303E-2</v>
+        <v>9.9864957945419996E-3</v>
       </c>
       <c r="I37">
-        <v>3.5462368442479797E-2</v>
+        <v>1.1560310320058401E-2</v>
       </c>
       <c r="J37">
-        <v>3.1719704023251298E-2</v>
+        <v>1.3151753007267401E-2</v>
       </c>
       <c r="K37">
-        <v>3.5877835664378299E-2</v>
+        <v>9.8014828506998997E-3</v>
       </c>
       <c r="L37">
-        <v>4.1935304887711702E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1.52463557321613E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B38">
-        <v>3.02447425675905E-2</v>
+        <v>7.3210041698252695E-2</v>
       </c>
       <c r="C38">
-        <v>2.94276158034774E-2</v>
+        <v>6.6247653983658394E-2</v>
       </c>
       <c r="D38">
-        <v>2.8155794867524599E-2</v>
+        <v>6.1861336052133203E-2</v>
       </c>
       <c r="E38">
-        <v>2.8326989695878602E-2</v>
+        <v>5.9369352331762097E-2</v>
       </c>
       <c r="F38">
-        <v>2.5998912404136602E-2</v>
+        <v>5.57836351087279E-2</v>
       </c>
       <c r="G38">
-        <v>2.4244081976601901E-2</v>
+        <v>4.8218507204846703E-2</v>
       </c>
       <c r="H38">
-        <v>2.0674117186635099E-2</v>
+        <v>4.6512946397236403E-2</v>
       </c>
       <c r="I38">
-        <v>3.0847134944539702E-2</v>
+        <v>3.8440899567626897E-2</v>
       </c>
       <c r="J38">
-        <v>2.4038270997170898E-2</v>
+        <v>3.5661959976534499E-2</v>
       </c>
       <c r="K38">
-        <v>1.8070778574830901E-2</v>
+        <v>3.1400773127764799E-2</v>
       </c>
       <c r="L38">
-        <v>2.4568506070185198E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2.5829371680692301E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B39">
         <f>B38-B37</f>
-        <v>-8.4598394856182021E-3</v>
+        <v>6.6245298941532402E-2</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:L39" si="11">C38-C37</f>
-        <v>-9.4014518358852966E-3</v>
+        <v>5.8331354942822697E-2</v>
       </c>
       <c r="D39">
         <f t="shared" si="11"/>
-        <v>-1.1746917866253204E-2</v>
+        <v>4.9471214414362301E-2</v>
       </c>
       <c r="E39">
         <f t="shared" si="11"/>
-        <v>-8.9698668971830015E-3</v>
+        <v>4.7847066558583701E-2</v>
       </c>
       <c r="F39">
         <f t="shared" si="11"/>
-        <v>-8.538102149964099E-3</v>
+        <v>4.1252655298750301E-2</v>
       </c>
       <c r="G39">
         <f t="shared" si="11"/>
-        <v>-1.2635451882703302E-2</v>
+        <v>3.7740290587967407E-2</v>
       </c>
       <c r="H39">
         <f t="shared" si="11"/>
-        <v>-1.5376993466375204E-2</v>
+        <v>3.6526450602694403E-2</v>
       </c>
       <c r="I39">
         <f t="shared" si="11"/>
-        <v>-4.6152334979400952E-3</v>
+        <v>2.6880589247568497E-2</v>
       </c>
       <c r="J39">
         <f t="shared" si="11"/>
-        <v>-7.6814330260803997E-3</v>
+        <v>2.2510206969267098E-2</v>
       </c>
       <c r="K39">
         <f t="shared" si="11"/>
-        <v>-1.7807057089547398E-2</v>
+        <v>2.1599290277064899E-2</v>
       </c>
       <c r="L39">
         <f t="shared" si="11"/>
-        <v>-1.7366798817526504E-2</v>
+        <v>1.0583015948531001E-2</v>
       </c>
       <c r="M39"/>
       <c r="N39"/>
@@ -15419,252 +15450,508 @@
       <c r="V39"/>
       <c r="W39"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40">
-        <v>1.2831048768558999E-3</v>
+        <v>3.8704582053208703E-2</v>
       </c>
       <c r="C40">
-        <v>1.6000000000000001E-3</v>
+        <v>3.8829067639362697E-2</v>
       </c>
       <c r="D40">
-        <v>5.9469991861970002E-4</v>
+        <v>3.9902712733777802E-2</v>
       </c>
       <c r="E40">
-        <v>2.8826462464856999E-3</v>
+        <v>3.7296856593061603E-2</v>
       </c>
       <c r="F40">
-        <v>1.7522324945475E-3</v>
+        <v>3.4537014554100701E-2</v>
       </c>
       <c r="G40">
-        <v>1.4438539569833E-3</v>
+        <v>3.6879533859305202E-2</v>
       </c>
       <c r="H40">
-        <v>1.6000000000000001E-3</v>
+        <v>3.6051110653010303E-2</v>
       </c>
       <c r="I40">
-        <v>5.7608738332349998E-4</v>
+        <v>3.5462368442479797E-2</v>
       </c>
       <c r="J40">
-        <v>1.9189189653493E-3</v>
+        <v>3.1719704023251298E-2</v>
       </c>
       <c r="K40">
-        <v>1.9488655805478001E-3</v>
+        <v>3.5877835664378299E-2</v>
       </c>
       <c r="L40">
-        <v>2.1426563284376999E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4.1935304887711702E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>3.02447425675905E-2</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2.94276158034774E-2</v>
       </c>
       <c r="D41">
-        <v>2.0829469753828002E-3</v>
+        <v>2.8155794867524599E-2</v>
       </c>
       <c r="E41">
-        <v>8.0000000000000004E-4</v>
+        <v>2.8326989695878602E-2</v>
       </c>
       <c r="F41">
-        <v>5.1295955338330002E-4</v>
+        <v>2.5998912404136602E-2</v>
       </c>
       <c r="G41">
-        <v>8.6594073503049995E-4</v>
+        <v>2.4244081976601901E-2</v>
       </c>
       <c r="H41">
-        <v>3.7542298081820003E-4</v>
+        <v>2.0674117186635099E-2</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>3.0847134944539702E-2</v>
       </c>
       <c r="J41">
-        <v>1.5625063481078999E-3</v>
+        <v>2.4038270997170898E-2</v>
       </c>
       <c r="K41">
-        <v>8.0000000000000004E-4</v>
+        <v>1.8070778574830901E-2</v>
       </c>
       <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B42" s="1">
+        <v>2.4568506070185198E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B42">
         <f>B41-B40</f>
-        <v>-1.2831048768558999E-3</v>
-      </c>
-      <c r="C42" s="1">
+        <v>-8.4598394856182021E-3</v>
+      </c>
+      <c r="C42">
         <f t="shared" ref="C42:L42" si="12">C41-C40</f>
-        <v>-1.6000000000000001E-3</v>
-      </c>
-      <c r="D42" s="1">
+        <v>-9.4014518358852966E-3</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="12"/>
-        <v>1.4882470567631001E-3</v>
-      </c>
-      <c r="E42" s="1">
+        <v>-1.1746917866253204E-2</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="12"/>
-        <v>-2.0826462464857E-3</v>
-      </c>
-      <c r="F42" s="1">
+        <v>-8.9698668971830015E-3</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="12"/>
-        <v>-1.2392729411642E-3</v>
-      </c>
-      <c r="G42" s="1">
+        <v>-8.538102149964099E-3</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="12"/>
-        <v>-5.779132219528001E-4</v>
-      </c>
-      <c r="H42" s="1">
+        <v>-1.2635451882703302E-2</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="12"/>
-        <v>-1.2245770191817999E-3</v>
-      </c>
-      <c r="I42" s="1">
+        <v>-1.5376993466375204E-2</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="12"/>
-        <v>-5.7608738332349998E-4</v>
-      </c>
-      <c r="J42" s="1">
+        <v>-4.6152334979400952E-3</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="12"/>
-        <v>-3.564126172414001E-4</v>
-      </c>
-      <c r="K42" s="1">
+        <v>-7.6814330260803997E-3</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="12"/>
-        <v>-1.1488655805478002E-3</v>
-      </c>
-      <c r="L42" s="1">
+        <v>-1.7807057089547398E-2</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="12"/>
-        <v>-2.1426563284376999E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+        <v>-1.7366798817526504E-2</v>
+      </c>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B43">
-        <v>0.434336858811324</v>
+        <v>1.2831048768558999E-3</v>
       </c>
       <c r="C43">
-        <v>0.38900460284951299</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D43">
-        <v>0.35860601337303299</v>
+        <v>5.9469991861970002E-4</v>
       </c>
       <c r="E43">
-        <v>0.32168144933750398</v>
+        <v>2.8826462464856999E-3</v>
       </c>
       <c r="F43">
-        <v>0.32676098926869002</v>
+        <v>1.7522324945475E-3</v>
       </c>
       <c r="G43">
-        <v>0.236359270276501</v>
+        <v>1.4438539569833E-3</v>
       </c>
       <c r="H43">
-        <v>0.17778622300432101</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="I43">
-        <v>0.16652097961426399</v>
+        <v>5.7608738332349998E-4</v>
       </c>
       <c r="J43">
-        <v>0.109214671118539</v>
+        <v>1.9189189653493E-3</v>
       </c>
       <c r="K43">
-        <v>9.9371332442936597E-2</v>
+        <v>1.9488655805478001E-3</v>
       </c>
       <c r="L43">
-        <v>3.2838700938595498E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2.1426563284376999E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B44">
-        <v>0.70960729180542204</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.59196714042837895</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0.60390705224573704</v>
+        <v>2.0829469753828002E-3</v>
       </c>
       <c r="E44">
-        <v>0.51229583049607696</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F44">
-        <v>0.52995223079410603</v>
+        <v>5.1295955338330002E-4</v>
       </c>
       <c r="G44">
-        <v>0.46200127239966199</v>
+        <v>8.6594073503049995E-4</v>
       </c>
       <c r="H44">
-        <v>0.34189310874944001</v>
+        <v>3.7542298081820003E-4</v>
       </c>
       <c r="I44">
-        <v>0.33136334763001801</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0.19866753707131801</v>
+        <v>1.5625063481078999E-3</v>
       </c>
       <c r="K44">
-        <v>0.18769528583215001</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="L44">
-        <v>0.126862893887494</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <f>B44-B43</f>
-        <v>0.27527043299409804</v>
+        <v>-1.2831048768558999E-3</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" ref="C45:L45" si="13">C44-C43</f>
-        <v>0.20296253757886595</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="13"/>
-        <v>0.24530103887270405</v>
+        <v>1.4882470567631001E-3</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="13"/>
-        <v>0.19061438115857299</v>
+        <v>-2.0826462464857E-3</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="13"/>
-        <v>0.20319124152541601</v>
+        <v>-1.2392729411642E-3</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="13"/>
-        <v>0.22564200212316099</v>
+        <v>-5.779132219528001E-4</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="13"/>
-        <v>0.164106885745119</v>
+        <v>-1.2245770191817999E-3</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="13"/>
-        <v>0.16484236801575403</v>
+        <v>-5.7608738332349998E-4</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="13"/>
-        <v>8.9452865952779015E-2</v>
+        <v>-3.564126172414001E-4</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="13"/>
-        <v>8.8323953389213408E-2</v>
+        <v>-1.1488655805478002E-3</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="13"/>
+        <v>-2.1426563284376999E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46">
+        <v>0.434336858811324</v>
+      </c>
+      <c r="C46">
+        <v>0.38900460284951299</v>
+      </c>
+      <c r="D46">
+        <v>0.35860601337303299</v>
+      </c>
+      <c r="E46">
+        <v>0.32168144933750398</v>
+      </c>
+      <c r="F46">
+        <v>0.32676098926869002</v>
+      </c>
+      <c r="G46">
+        <v>0.236359270276501</v>
+      </c>
+      <c r="H46">
+        <v>0.17778622300432101</v>
+      </c>
+      <c r="I46">
+        <v>0.16652097961426399</v>
+      </c>
+      <c r="J46">
+        <v>0.109214671118539</v>
+      </c>
+      <c r="K46">
+        <v>9.9371332442936597E-2</v>
+      </c>
+      <c r="L46">
+        <v>3.2838700938595498E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47">
+        <v>0.70960729180542204</v>
+      </c>
+      <c r="C47">
+        <v>0.59196714042837895</v>
+      </c>
+      <c r="D47">
+        <v>0.60390705224573704</v>
+      </c>
+      <c r="E47">
+        <v>0.51229583049607696</v>
+      </c>
+      <c r="F47">
+        <v>0.52995223079410603</v>
+      </c>
+      <c r="G47">
+        <v>0.46200127239966199</v>
+      </c>
+      <c r="H47">
+        <v>0.34189310874944001</v>
+      </c>
+      <c r="I47">
+        <v>0.33136334763001801</v>
+      </c>
+      <c r="J47">
+        <v>0.19866753707131801</v>
+      </c>
+      <c r="K47">
+        <v>0.18769528583215001</v>
+      </c>
+      <c r="L47">
+        <v>0.126862893887494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <f>B47-B46</f>
+        <v>0.27527043299409804</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" ref="C48:L48" si="14">C47-C46</f>
+        <v>0.20296253757886595</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.24530103887270405</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.19061438115857299</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.20319124152541601</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.22564200212316099</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.164106885745119</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.16484236801575403</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="14"/>
+        <v>8.9452865952779015E-2</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="14"/>
+        <v>8.8323953389213408E-2</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="14"/>
         <v>9.4024192948898494E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49">
+        <v>0.67569639194713504</v>
+      </c>
+      <c r="C49">
+        <v>0.62154547932392401</v>
+      </c>
+      <c r="D49">
+        <v>0.55051961064767196</v>
+      </c>
+      <c r="E49">
+        <v>0.474414722922198</v>
+      </c>
+      <c r="F49">
+        <v>0.43907355697322897</v>
+      </c>
+      <c r="G49">
+        <v>0.3326427604328</v>
+      </c>
+      <c r="H49">
+        <v>0.29923120799011699</v>
+      </c>
+      <c r="I49">
+        <v>0.19788446307368801</v>
+      </c>
+      <c r="J49">
+        <v>0.14196766617731099</v>
+      </c>
+      <c r="K49">
+        <v>7.8340440015199006E-2</v>
+      </c>
+      <c r="L49">
+        <v>1.3770396797071901E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50">
+        <v>0.68226776500892705</v>
+      </c>
+      <c r="C50">
+        <v>0.62141598285863098</v>
+      </c>
+      <c r="D50">
+        <v>0.54842226835067098</v>
+      </c>
+      <c r="E50">
+        <v>0.48969628809182603</v>
+      </c>
+      <c r="F50">
+        <v>0.39698984173138901</v>
+      </c>
+      <c r="G50">
+        <v>0.36521118970570798</v>
+      </c>
+      <c r="H50">
+        <v>0.26230179789758601</v>
+      </c>
+      <c r="I50">
+        <v>0.214715396569756</v>
+      </c>
+      <c r="J50">
+        <v>0.140417923830464</v>
+      </c>
+      <c r="K50">
+        <v>8.4366974634451503E-2</v>
+      </c>
+      <c r="L50">
+        <v>1.4967689670852199E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <f>B50-B49</f>
+        <v>6.5713730617920074E-3</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" ref="C51:L51" si="15">C50-C49</f>
+        <v>-1.2949646529303305E-4</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="15"/>
+        <v>-2.0973422970009814E-3</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="15"/>
+        <v>1.5281565169628031E-2</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="15"/>
+        <v>-4.2083715241839958E-2</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="15"/>
+        <v>3.2568429272907984E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.6929410092530979E-2</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="15"/>
+        <v>1.6830933496067985E-2</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="15"/>
+        <v>-1.5497423468469884E-3</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="15"/>
+        <v>6.0265346192524966E-3</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="15"/>
+        <v>1.197292873780299E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/output/2015SB12/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
+++ b/output/2015SB12/agg.pred.eval.mean.20.all.0.0-1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\2015SB12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D5E0F-8970-4861-9F78-CCD51DE60E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9C24D9-3D1E-4869-922B-2D7AE87528E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16110" windowHeight="12990" activeTab="1" xr2:uid="{D3D8C78D-4917-4016-94F8-F528A575C558}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
     <t>cat</t>
   </si>
   <si>
-    <t>bert-e2e-absa</t>
+    <t>bert</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -627,7 +627,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:rPr lang="en-US" sz="1600" b="1"/>
               <a:t>semeval-15-restaurant</a:t>
             </a:r>
           </a:p>
@@ -637,8 +637,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22878249306543366"/>
-          <c:y val="6.6209463189498718E-2"/>
+          <c:x val="0.2580606044398624"/>
+          <c:y val="6.6209536307961503E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -654,7 +654,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -674,8 +674,135 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-3.8709677419354938E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.7096774193549065E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.3870967741934987E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6129032258065001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.2580645161289981E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9354838709677025E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.6451612903225978E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2903225806452007E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.0645161290322925E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6129032258064002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E7AA-46EC-8631-51AD3AF35DF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="6"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$20</c:f>
@@ -804,7 +931,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$8</c:f>
@@ -933,7 +1060,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -1062,7 +1189,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -1190,135 +1317,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ctm-z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$13:$L$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>7.3599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2400000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8400000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6400000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.6799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9199999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.9999999999999984E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AE99-4C9F-AD69-8BAFBFC13EA7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -1447,7 +1447,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -1582,6 +1582,157 @@
         </c:dLbls>
         <c:axId val="1057650367"/>
         <c:axId val="1057648927"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ctm-z</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="star"/>
+                  <c:size val="7"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$13:$L$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>7.3599999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.2400000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.8000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.8400000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.6400000000000004E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.6799999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.9199999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.0799999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.2800000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>7.9999999999999984E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-AE99-4C9F-AD69-8BAFBFC13EA7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1057650367"/>
@@ -1798,6 +1949,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.000000000000001E-2"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1817,10 +1969,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.69587335492637892"/>
-          <c:y val="0.20960848643919511"/>
-          <c:w val="0.24414782342683453"/>
-          <c:h val="0.68072985357092919"/>
+          <c:x val="0.69584767479008791"/>
+          <c:y val="0.15802118485189351"/>
+          <c:w val="0.30327521534483559"/>
+          <c:h val="0.60136482939632541"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1836,7 +1988,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1914,7 +2066,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1924,7 +2076,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:rPr lang="en-US" sz="1600" b="1"/>
               <a:t>semeval-15-restaurant</a:t>
             </a:r>
           </a:p>
@@ -1934,8 +2086,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23469265904717199"/>
-          <c:y val="6.9966066568410576E-2"/>
+          <c:x val="0.25514220879372396"/>
+          <c:y val="6.9965941757280339E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1951,7 +2103,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1971,8 +2123,135 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$51:$L$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.5713730617920074E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2949646529303305E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0973422970009814E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5281565169628031E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.2083715241839958E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2568429272907984E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.6929410092530979E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6830933496067985E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5497423468469884E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0265346192524966E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.197292873780299E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA85-4B9B-8AB2-C52E4E37597A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="6"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$46</c:f>
@@ -2101,7 +2380,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$34</c:f>
@@ -2230,7 +2509,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$2</c:f>
@@ -2359,7 +2638,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$5</c:f>
@@ -2487,135 +2766,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ctm-z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$39:$L$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6.6245298941532402E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.8331354942822697E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9471214414362301E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.7847066558583701E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.1252655298750301E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.7740290587967407E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.6526450602694403E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6880589247568497E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2510206969267098E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.1599290277064899E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0583015948531001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5110-4475-A781-55597FB72561}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$14</c:f>
@@ -2744,7 +2896,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$A$17</c:f>
@@ -2879,6 +3031,157 @@
         </c:dLbls>
         <c:axId val="1057650367"/>
         <c:axId val="1057648927"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ctm-z</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="12700" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="star"/>
+                  <c:size val="7"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$39:$L$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>6.6245298941532402E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.8331354942822697E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.9471214414362301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.7847066558583701E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.1252655298750301E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.7740290587967407E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.6526450602694403E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.6880589247568497E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.2510206969267098E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.1599290277064899E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.0583015948531001E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-5110-4475-A781-55597FB72561}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1057650367"/>
@@ -3114,10 +3417,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.69587335492637892"/>
-          <c:y val="0.20960848643919511"/>
-          <c:w val="0.24442990218208868"/>
-          <c:h val="0.67895442937378125"/>
+          <c:x val="0.69879123049027336"/>
+          <c:y val="0.16198943882014749"/>
+          <c:w val="0.30120876950972669"/>
+          <c:h val="0.59958942632170975"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3133,7 +3436,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4287,9 +4590,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>361614</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>136152</xdr:rowOff>
+      <xdr:colOff>394632</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21852</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4325,9 +4628,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>19834</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>112882</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13622,8 +13925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FFB291-E4F5-4E4E-B884-4FDFA1C7897B}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="M16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
